--- a/gengxiang/data_new/sz300978.xlsx
+++ b/gengxiang/data_new/sz300978.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,41 +481,82 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>东箭科技</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>sz300978</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2467</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H2" t="n">
+        <v>56.77</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="J2" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>2022-11-10</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>东箭科技</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>sz300978</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>13.45</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E3" t="n">
         <v>2274</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F3" t="n">
         <v>-2.11</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G3" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H3" t="n">
         <v>56.85</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I3" t="n">
         <v>1.27</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J3" t="n">
         <v>59.39</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K3" t="n">
         <v>3.66</v>
       </c>
     </row>

--- a/gengxiang/data_new/sz300978.xlsx
+++ b/gengxiang/data_new/sz300978.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-11</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -495,68 +495,150 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>13.43</v>
+        <v>13.69</v>
       </c>
       <c r="E2" t="n">
-        <v>2467</v>
+        <v>2611</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.15</v>
+        <v>2.78</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9</v>
+        <v>1.15</v>
       </c>
       <c r="H2" t="n">
-        <v>56.77</v>
+        <v>57.87</v>
       </c>
       <c r="I2" t="n">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="J2" t="n">
-        <v>59.3</v>
+        <v>60.45</v>
       </c>
       <c r="K2" t="n">
-        <v>3.66</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>2022-11-14</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>东箭科技</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>sz300978</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>13.32</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2295</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.82</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H3" t="n">
+        <v>56.3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J3" t="n">
+        <v>58.82</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>东箭科技</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>sz300978</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2467</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H4" t="n">
+        <v>56.77</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="J4" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>2022-11-10</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>东箭科技</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>sz300978</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="D5" t="n">
         <v>13.45</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E5" t="n">
         <v>2274</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F5" t="n">
         <v>-2.11</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G5" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H5" t="n">
         <v>56.85</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I5" t="n">
         <v>1.27</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J5" t="n">
         <v>59.39</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K5" t="n">
         <v>3.66</v>
       </c>
     </row>

--- a/gengxiang/data_new/sz300978.xlsx
+++ b/gengxiang/data_new/sz300978.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-11-16</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -495,34 +495,34 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>13.69</v>
+        <v>13.5</v>
       </c>
       <c r="E2" t="n">
-        <v>2611</v>
+        <v>2487</v>
       </c>
       <c r="F2" t="n">
-        <v>2.78</v>
+        <v>-1.39</v>
       </c>
       <c r="G2" t="n">
-        <v>1.15</v>
+        <v>1.04</v>
       </c>
       <c r="H2" t="n">
-        <v>57.87</v>
+        <v>57.06</v>
       </c>
       <c r="I2" t="n">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="J2" t="n">
-        <v>60.45</v>
+        <v>59.61</v>
       </c>
       <c r="K2" t="n">
-        <v>3.73</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-14</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -536,34 +536,34 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>13.32</v>
+        <v>13.69</v>
       </c>
       <c r="E3" t="n">
-        <v>2295</v>
+        <v>2611</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.82</v>
+        <v>2.78</v>
       </c>
       <c r="G3" t="n">
-        <v>0.96</v>
+        <v>1.15</v>
       </c>
       <c r="H3" t="n">
-        <v>56.3</v>
+        <v>57.87</v>
       </c>
       <c r="I3" t="n">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="J3" t="n">
-        <v>58.82</v>
+        <v>60.45</v>
       </c>
       <c r="K3" t="n">
-        <v>3.63</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-11</t>
+          <t>2022-11-14</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -577,68 +577,109 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>13.43</v>
+        <v>13.32</v>
       </c>
       <c r="E4" t="n">
-        <v>2467</v>
+        <v>2295</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.15</v>
+        <v>-0.82</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="H4" t="n">
-        <v>56.77</v>
+        <v>56.3</v>
       </c>
       <c r="I4" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="J4" t="n">
-        <v>59.3</v>
+        <v>58.82</v>
       </c>
       <c r="K4" t="n">
-        <v>3.66</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>东箭科技</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>sz300978</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2467</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>56.77</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="J5" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>2022-11-10</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>东箭科技</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>sz300978</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>13.45</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E6" t="n">
         <v>2274</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F6" t="n">
         <v>-2.11</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G6" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H6" t="n">
         <v>56.85</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I6" t="n">
         <v>1.27</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J6" t="n">
         <v>59.39</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K6" t="n">
         <v>3.66</v>
       </c>
     </row>

--- a/gengxiang/data_new/sz300978.xlsx
+++ b/gengxiang/data_new/sz300978.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-16</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -495,34 +495,34 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>13.5</v>
+        <v>13.26</v>
       </c>
       <c r="E2" t="n">
-        <v>2487</v>
+        <v>3001</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.39</v>
+        <v>-1.78</v>
       </c>
       <c r="G2" t="n">
-        <v>1.04</v>
+        <v>1.27</v>
       </c>
       <c r="H2" t="n">
-        <v>57.06</v>
+        <v>56.05</v>
       </c>
       <c r="I2" t="n">
-        <v>1.39</v>
+        <v>1.72</v>
       </c>
       <c r="J2" t="n">
-        <v>59.61</v>
+        <v>58.55</v>
       </c>
       <c r="K2" t="n">
-        <v>3.67</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-11-16</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -536,34 +536,34 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>13.69</v>
+        <v>13.5</v>
       </c>
       <c r="E3" t="n">
-        <v>2611</v>
+        <v>2487</v>
       </c>
       <c r="F3" t="n">
-        <v>2.78</v>
+        <v>-1.39</v>
       </c>
       <c r="G3" t="n">
-        <v>1.15</v>
+        <v>1.04</v>
       </c>
       <c r="H3" t="n">
-        <v>57.87</v>
+        <v>57.06</v>
       </c>
       <c r="I3" t="n">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="J3" t="n">
-        <v>60.45</v>
+        <v>59.61</v>
       </c>
       <c r="K3" t="n">
-        <v>3.73</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-14</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -577,34 +577,34 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>13.32</v>
+        <v>13.69</v>
       </c>
       <c r="E4" t="n">
-        <v>2295</v>
+        <v>2611</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.82</v>
+        <v>2.78</v>
       </c>
       <c r="G4" t="n">
-        <v>0.96</v>
+        <v>1.15</v>
       </c>
       <c r="H4" t="n">
-        <v>56.3</v>
+        <v>57.87</v>
       </c>
       <c r="I4" t="n">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="J4" t="n">
-        <v>58.82</v>
+        <v>60.45</v>
       </c>
       <c r="K4" t="n">
-        <v>3.63</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-11</t>
+          <t>2022-11-14</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -618,68 +618,109 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>13.43</v>
+        <v>13.32</v>
       </c>
       <c r="E5" t="n">
-        <v>2467</v>
+        <v>2295</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.15</v>
+        <v>-0.82</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="H5" t="n">
-        <v>56.77</v>
+        <v>56.3</v>
       </c>
       <c r="I5" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="J5" t="n">
-        <v>59.3</v>
+        <v>58.82</v>
       </c>
       <c r="K5" t="n">
-        <v>3.66</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>东箭科技</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>sz300978</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2467</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H6" t="n">
+        <v>56.77</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="J6" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>2022-11-10</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>东箭科技</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>sz300978</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>13.45</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E7" t="n">
         <v>2274</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F7" t="n">
         <v>-2.11</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G7" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H7" t="n">
         <v>56.85</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I7" t="n">
         <v>1.27</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J7" t="n">
         <v>59.39</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K7" t="n">
         <v>3.66</v>
       </c>
     </row>

--- a/gengxiang/data_new/sz300978.xlsx
+++ b/gengxiang/data_new/sz300978.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -495,34 +495,34 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>13.26</v>
+        <v>12.78</v>
       </c>
       <c r="E2" t="n">
-        <v>3001</v>
+        <v>3434</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.78</v>
+        <v>-3.62</v>
       </c>
       <c r="G2" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="H2" t="n">
-        <v>56.05</v>
+        <v>54.02</v>
       </c>
       <c r="I2" t="n">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>58.55</v>
+        <v>56.43</v>
       </c>
       <c r="K2" t="n">
-        <v>3.61</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-16</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -536,34 +536,34 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>13.5</v>
+        <v>13.26</v>
       </c>
       <c r="E3" t="n">
-        <v>2487</v>
+        <v>3001</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.39</v>
+        <v>-1.78</v>
       </c>
       <c r="G3" t="n">
-        <v>1.04</v>
+        <v>1.27</v>
       </c>
       <c r="H3" t="n">
-        <v>57.06</v>
+        <v>56.05</v>
       </c>
       <c r="I3" t="n">
-        <v>1.39</v>
+        <v>1.72</v>
       </c>
       <c r="J3" t="n">
-        <v>59.61</v>
+        <v>58.55</v>
       </c>
       <c r="K3" t="n">
-        <v>3.67</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-11-16</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -577,34 +577,34 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>13.69</v>
+        <v>13.5</v>
       </c>
       <c r="E4" t="n">
-        <v>2611</v>
+        <v>2487</v>
       </c>
       <c r="F4" t="n">
-        <v>2.78</v>
+        <v>-1.39</v>
       </c>
       <c r="G4" t="n">
-        <v>1.15</v>
+        <v>1.04</v>
       </c>
       <c r="H4" t="n">
-        <v>57.87</v>
+        <v>57.06</v>
       </c>
       <c r="I4" t="n">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="J4" t="n">
-        <v>60.45</v>
+        <v>59.61</v>
       </c>
       <c r="K4" t="n">
-        <v>3.73</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-14</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -618,34 +618,34 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>13.32</v>
+        <v>13.69</v>
       </c>
       <c r="E5" t="n">
-        <v>2295</v>
+        <v>2611</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.82</v>
+        <v>2.78</v>
       </c>
       <c r="G5" t="n">
-        <v>0.96</v>
+        <v>1.15</v>
       </c>
       <c r="H5" t="n">
-        <v>56.3</v>
+        <v>57.87</v>
       </c>
       <c r="I5" t="n">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="J5" t="n">
-        <v>58.82</v>
+        <v>60.45</v>
       </c>
       <c r="K5" t="n">
-        <v>3.63</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-11</t>
+          <t>2022-11-14</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -659,68 +659,109 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>13.43</v>
+        <v>13.32</v>
       </c>
       <c r="E6" t="n">
-        <v>2467</v>
+        <v>2295</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.15</v>
+        <v>-0.82</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="H6" t="n">
-        <v>56.77</v>
+        <v>56.3</v>
       </c>
       <c r="I6" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="J6" t="n">
-        <v>59.3</v>
+        <v>58.82</v>
       </c>
       <c r="K6" t="n">
-        <v>3.66</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>东箭科技</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>sz300978</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2467</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H7" t="n">
+        <v>56.77</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="J7" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>2022-11-10</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>东箭科技</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>sz300978</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>13.45</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E8" t="n">
         <v>2274</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F8" t="n">
         <v>-2.11</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G8" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H8" t="n">
         <v>56.85</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I8" t="n">
         <v>1.27</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J8" t="n">
         <v>59.39</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K8" t="n">
         <v>3.66</v>
       </c>
     </row>

--- a/gengxiang/data_new/sz300978.xlsx
+++ b/gengxiang/data_new/sz300978.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-18</t>
+          <t>2022-11-21</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -495,34 +495,34 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>12.78</v>
+        <v>13.12</v>
       </c>
       <c r="E2" t="n">
-        <v>3434</v>
+        <v>2989</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.62</v>
+        <v>2.66</v>
       </c>
       <c r="G2" t="n">
-        <v>1.38</v>
+        <v>1.12</v>
       </c>
       <c r="H2" t="n">
-        <v>54.02</v>
+        <v>55.46</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>1.76</v>
       </c>
       <c r="J2" t="n">
-        <v>56.43</v>
+        <v>57.93</v>
       </c>
       <c r="K2" t="n">
-        <v>3.48</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -536,34 +536,34 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>13.26</v>
+        <v>12.78</v>
       </c>
       <c r="E3" t="n">
-        <v>3001</v>
+        <v>3434</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.78</v>
+        <v>-3.62</v>
       </c>
       <c r="G3" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="H3" t="n">
-        <v>56.05</v>
+        <v>54.02</v>
       </c>
       <c r="I3" t="n">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>58.55</v>
+        <v>56.43</v>
       </c>
       <c r="K3" t="n">
-        <v>3.61</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-16</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -577,34 +577,34 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>13.5</v>
+        <v>13.26</v>
       </c>
       <c r="E4" t="n">
-        <v>2487</v>
+        <v>3001</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.39</v>
+        <v>-1.78</v>
       </c>
       <c r="G4" t="n">
-        <v>1.04</v>
+        <v>1.27</v>
       </c>
       <c r="H4" t="n">
-        <v>57.06</v>
+        <v>56.05</v>
       </c>
       <c r="I4" t="n">
-        <v>1.39</v>
+        <v>1.72</v>
       </c>
       <c r="J4" t="n">
-        <v>59.61</v>
+        <v>58.55</v>
       </c>
       <c r="K4" t="n">
-        <v>3.67</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-11-16</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -618,34 +618,34 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>13.69</v>
+        <v>13.5</v>
       </c>
       <c r="E5" t="n">
-        <v>2611</v>
+        <v>2487</v>
       </c>
       <c r="F5" t="n">
-        <v>2.78</v>
+        <v>-1.39</v>
       </c>
       <c r="G5" t="n">
-        <v>1.15</v>
+        <v>1.04</v>
       </c>
       <c r="H5" t="n">
-        <v>57.87</v>
+        <v>57.06</v>
       </c>
       <c r="I5" t="n">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="J5" t="n">
-        <v>60.45</v>
+        <v>59.61</v>
       </c>
       <c r="K5" t="n">
-        <v>3.73</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-14</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -659,34 +659,34 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>13.32</v>
+        <v>13.69</v>
       </c>
       <c r="E6" t="n">
-        <v>2295</v>
+        <v>2611</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.82</v>
+        <v>2.78</v>
       </c>
       <c r="G6" t="n">
-        <v>0.96</v>
+        <v>1.15</v>
       </c>
       <c r="H6" t="n">
-        <v>56.3</v>
+        <v>57.87</v>
       </c>
       <c r="I6" t="n">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="J6" t="n">
-        <v>58.82</v>
+        <v>60.45</v>
       </c>
       <c r="K6" t="n">
-        <v>3.63</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-11-11</t>
+          <t>2022-11-14</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -700,68 +700,109 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>13.43</v>
+        <v>13.32</v>
       </c>
       <c r="E7" t="n">
-        <v>2467</v>
+        <v>2295</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.15</v>
+        <v>-0.82</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="H7" t="n">
-        <v>56.77</v>
+        <v>56.3</v>
       </c>
       <c r="I7" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="J7" t="n">
-        <v>59.3</v>
+        <v>58.82</v>
       </c>
       <c r="K7" t="n">
-        <v>3.66</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>东箭科技</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>sz300978</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2467</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H8" t="n">
+        <v>56.77</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="J8" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>2022-11-10</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>东箭科技</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>sz300978</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>13.45</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E9" t="n">
         <v>2274</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F9" t="n">
         <v>-2.11</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G9" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H9" t="n">
         <v>56.85</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I9" t="n">
         <v>1.27</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J9" t="n">
         <v>59.39</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K9" t="n">
         <v>3.66</v>
       </c>
     </row>

--- a/gengxiang/data_new/sz300978.xlsx
+++ b/gengxiang/data_new/sz300978.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-21</t>
+          <t>2022-11-22</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -495,34 +495,34 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>13.12</v>
+        <v>12.66</v>
       </c>
       <c r="E2" t="n">
-        <v>2989</v>
+        <v>3300</v>
       </c>
       <c r="F2" t="n">
-        <v>2.66</v>
+        <v>-3.51</v>
       </c>
       <c r="G2" t="n">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="H2" t="n">
-        <v>55.46</v>
+        <v>53.51</v>
       </c>
       <c r="I2" t="n">
-        <v>1.76</v>
+        <v>1.94</v>
       </c>
       <c r="J2" t="n">
-        <v>57.93</v>
+        <v>55.9</v>
       </c>
       <c r="K2" t="n">
-        <v>3.57</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-18</t>
+          <t>2022-11-21</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -536,34 +536,34 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>12.78</v>
+        <v>13.12</v>
       </c>
       <c r="E3" t="n">
-        <v>3434</v>
+        <v>2989</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.62</v>
+        <v>2.66</v>
       </c>
       <c r="G3" t="n">
-        <v>1.38</v>
+        <v>1.12</v>
       </c>
       <c r="H3" t="n">
-        <v>54.02</v>
+        <v>55.46</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>1.76</v>
       </c>
       <c r="J3" t="n">
-        <v>56.43</v>
+        <v>57.93</v>
       </c>
       <c r="K3" t="n">
-        <v>3.48</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -577,34 +577,34 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>13.26</v>
+        <v>12.78</v>
       </c>
       <c r="E4" t="n">
-        <v>3001</v>
+        <v>3434</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.78</v>
+        <v>-3.62</v>
       </c>
       <c r="G4" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="H4" t="n">
-        <v>56.05</v>
+        <v>54.02</v>
       </c>
       <c r="I4" t="n">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>58.55</v>
+        <v>56.43</v>
       </c>
       <c r="K4" t="n">
-        <v>3.61</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-16</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -618,34 +618,34 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>13.5</v>
+        <v>13.26</v>
       </c>
       <c r="E5" t="n">
-        <v>2487</v>
+        <v>3001</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.39</v>
+        <v>-1.78</v>
       </c>
       <c r="G5" t="n">
-        <v>1.04</v>
+        <v>1.27</v>
       </c>
       <c r="H5" t="n">
-        <v>57.06</v>
+        <v>56.05</v>
       </c>
       <c r="I5" t="n">
-        <v>1.39</v>
+        <v>1.72</v>
       </c>
       <c r="J5" t="n">
-        <v>59.61</v>
+        <v>58.55</v>
       </c>
       <c r="K5" t="n">
-        <v>3.67</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-11-16</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -659,34 +659,34 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>13.69</v>
+        <v>13.5</v>
       </c>
       <c r="E6" t="n">
-        <v>2611</v>
+        <v>2487</v>
       </c>
       <c r="F6" t="n">
-        <v>2.78</v>
+        <v>-1.39</v>
       </c>
       <c r="G6" t="n">
-        <v>1.15</v>
+        <v>1.04</v>
       </c>
       <c r="H6" t="n">
-        <v>57.87</v>
+        <v>57.06</v>
       </c>
       <c r="I6" t="n">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="J6" t="n">
-        <v>60.45</v>
+        <v>59.61</v>
       </c>
       <c r="K6" t="n">
-        <v>3.73</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-11-14</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -700,34 +700,34 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>13.32</v>
+        <v>13.69</v>
       </c>
       <c r="E7" t="n">
-        <v>2295</v>
+        <v>2611</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.82</v>
+        <v>2.78</v>
       </c>
       <c r="G7" t="n">
-        <v>0.96</v>
+        <v>1.15</v>
       </c>
       <c r="H7" t="n">
-        <v>56.3</v>
+        <v>57.87</v>
       </c>
       <c r="I7" t="n">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="J7" t="n">
-        <v>58.82</v>
+        <v>60.45</v>
       </c>
       <c r="K7" t="n">
-        <v>3.63</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-11-11</t>
+          <t>2022-11-14</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -741,68 +741,109 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>13.43</v>
+        <v>13.32</v>
       </c>
       <c r="E8" t="n">
-        <v>2467</v>
+        <v>2295</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.15</v>
+        <v>-0.82</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="H8" t="n">
-        <v>56.77</v>
+        <v>56.3</v>
       </c>
       <c r="I8" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="J8" t="n">
-        <v>59.3</v>
+        <v>58.82</v>
       </c>
       <c r="K8" t="n">
-        <v>3.66</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>东箭科技</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>sz300978</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2467</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H9" t="n">
+        <v>56.77</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="J9" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>2022-11-10</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>东箭科技</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>sz300978</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>13.45</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E10" t="n">
         <v>2274</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F10" t="n">
         <v>-2.11</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G10" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H10" t="n">
         <v>56.85</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I10" t="n">
         <v>1.27</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J10" t="n">
         <v>59.39</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K10" t="n">
         <v>3.66</v>
       </c>
     </row>

--- a/gengxiang/data_new/sz300978.xlsx
+++ b/gengxiang/data_new/sz300978.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-22</t>
+          <t>2022-11-23</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -495,34 +495,34 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>12.66</v>
+        <v>12.44</v>
       </c>
       <c r="E2" t="n">
-        <v>3300</v>
+        <v>4009</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.51</v>
+        <v>-1.74</v>
       </c>
       <c r="G2" t="n">
-        <v>1.17</v>
+        <v>1.4</v>
       </c>
       <c r="H2" t="n">
-        <v>53.51</v>
+        <v>52.58</v>
       </c>
       <c r="I2" t="n">
-        <v>1.94</v>
+        <v>2.46</v>
       </c>
       <c r="J2" t="n">
-        <v>55.9</v>
+        <v>54.93</v>
       </c>
       <c r="K2" t="n">
-        <v>3.45</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-21</t>
+          <t>2022-11-22</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -536,34 +536,34 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>13.12</v>
+        <v>12.66</v>
       </c>
       <c r="E3" t="n">
-        <v>2989</v>
+        <v>3300</v>
       </c>
       <c r="F3" t="n">
-        <v>2.66</v>
+        <v>-3.51</v>
       </c>
       <c r="G3" t="n">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="H3" t="n">
-        <v>55.46</v>
+        <v>53.51</v>
       </c>
       <c r="I3" t="n">
-        <v>1.76</v>
+        <v>1.94</v>
       </c>
       <c r="J3" t="n">
-        <v>57.93</v>
+        <v>55.9</v>
       </c>
       <c r="K3" t="n">
-        <v>3.57</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-18</t>
+          <t>2022-11-21</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -577,34 +577,34 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>12.78</v>
+        <v>13.12</v>
       </c>
       <c r="E4" t="n">
-        <v>3434</v>
+        <v>2989</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.62</v>
+        <v>2.66</v>
       </c>
       <c r="G4" t="n">
-        <v>1.38</v>
+        <v>1.12</v>
       </c>
       <c r="H4" t="n">
-        <v>54.02</v>
+        <v>55.46</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>1.76</v>
       </c>
       <c r="J4" t="n">
-        <v>56.43</v>
+        <v>57.93</v>
       </c>
       <c r="K4" t="n">
-        <v>3.48</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -618,34 +618,34 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>13.26</v>
+        <v>12.78</v>
       </c>
       <c r="E5" t="n">
-        <v>3001</v>
+        <v>3434</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.78</v>
+        <v>-3.62</v>
       </c>
       <c r="G5" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="H5" t="n">
-        <v>56.05</v>
+        <v>54.02</v>
       </c>
       <c r="I5" t="n">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>58.55</v>
+        <v>56.43</v>
       </c>
       <c r="K5" t="n">
-        <v>3.61</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-16</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -659,34 +659,34 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>13.5</v>
+        <v>13.26</v>
       </c>
       <c r="E6" t="n">
-        <v>2487</v>
+        <v>3001</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.39</v>
+        <v>-1.78</v>
       </c>
       <c r="G6" t="n">
-        <v>1.04</v>
+        <v>1.27</v>
       </c>
       <c r="H6" t="n">
-        <v>57.06</v>
+        <v>56.05</v>
       </c>
       <c r="I6" t="n">
-        <v>1.39</v>
+        <v>1.72</v>
       </c>
       <c r="J6" t="n">
-        <v>59.61</v>
+        <v>58.55</v>
       </c>
       <c r="K6" t="n">
-        <v>3.67</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-11-16</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -700,34 +700,34 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>13.69</v>
+        <v>13.5</v>
       </c>
       <c r="E7" t="n">
-        <v>2611</v>
+        <v>2487</v>
       </c>
       <c r="F7" t="n">
-        <v>2.78</v>
+        <v>-1.39</v>
       </c>
       <c r="G7" t="n">
-        <v>1.15</v>
+        <v>1.04</v>
       </c>
       <c r="H7" t="n">
-        <v>57.87</v>
+        <v>57.06</v>
       </c>
       <c r="I7" t="n">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="J7" t="n">
-        <v>60.45</v>
+        <v>59.61</v>
       </c>
       <c r="K7" t="n">
-        <v>3.73</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-11-14</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -741,34 +741,34 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>13.32</v>
+        <v>13.69</v>
       </c>
       <c r="E8" t="n">
-        <v>2295</v>
+        <v>2611</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.82</v>
+        <v>2.78</v>
       </c>
       <c r="G8" t="n">
-        <v>0.96</v>
+        <v>1.15</v>
       </c>
       <c r="H8" t="n">
-        <v>56.3</v>
+        <v>57.87</v>
       </c>
       <c r="I8" t="n">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="J8" t="n">
-        <v>58.82</v>
+        <v>60.45</v>
       </c>
       <c r="K8" t="n">
-        <v>3.63</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-11-11</t>
+          <t>2022-11-14</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -782,68 +782,109 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>13.43</v>
+        <v>13.32</v>
       </c>
       <c r="E9" t="n">
-        <v>2467</v>
+        <v>2295</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.15</v>
+        <v>-0.82</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="H9" t="n">
-        <v>56.77</v>
+        <v>56.3</v>
       </c>
       <c r="I9" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="J9" t="n">
-        <v>59.3</v>
+        <v>58.82</v>
       </c>
       <c r="K9" t="n">
-        <v>3.66</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>东箭科技</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>sz300978</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2467</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H10" t="n">
+        <v>56.77</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="J10" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>2022-11-10</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>东箭科技</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>sz300978</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>东箭科技</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>sz300978</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>13.45</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E11" t="n">
         <v>2274</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F11" t="n">
         <v>-2.11</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G11" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H11" t="n">
         <v>56.85</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I11" t="n">
         <v>1.27</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J11" t="n">
         <v>59.39</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K11" t="n">
         <v>3.66</v>
       </c>
     </row>

--- a/gengxiang/data_new/sz300978.xlsx
+++ b/gengxiang/data_new/sz300978.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-23</t>
+          <t>2022-11-24</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -495,34 +495,34 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>12.44</v>
+        <v>12.57</v>
       </c>
       <c r="E2" t="n">
-        <v>4009</v>
+        <v>2505</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.74</v>
+        <v>1.05</v>
       </c>
       <c r="G2" t="n">
-        <v>1.4</v>
+        <v>0.77</v>
       </c>
       <c r="H2" t="n">
-        <v>52.58</v>
+        <v>53.13</v>
       </c>
       <c r="I2" t="n">
-        <v>2.46</v>
+        <v>1.51</v>
       </c>
       <c r="J2" t="n">
-        <v>54.93</v>
+        <v>55.51</v>
       </c>
       <c r="K2" t="n">
-        <v>3.39</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-22</t>
+          <t>2022-11-23</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -536,34 +536,34 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>12.66</v>
+        <v>12.44</v>
       </c>
       <c r="E3" t="n">
-        <v>3300</v>
+        <v>4009</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.51</v>
+        <v>-1.74</v>
       </c>
       <c r="G3" t="n">
-        <v>1.17</v>
+        <v>1.4</v>
       </c>
       <c r="H3" t="n">
-        <v>53.51</v>
+        <v>52.58</v>
       </c>
       <c r="I3" t="n">
-        <v>1.94</v>
+        <v>2.46</v>
       </c>
       <c r="J3" t="n">
-        <v>55.9</v>
+        <v>54.93</v>
       </c>
       <c r="K3" t="n">
-        <v>3.45</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-21</t>
+          <t>2022-11-22</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -577,34 +577,34 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>13.12</v>
+        <v>12.66</v>
       </c>
       <c r="E4" t="n">
-        <v>2989</v>
+        <v>3300</v>
       </c>
       <c r="F4" t="n">
-        <v>2.66</v>
+        <v>-3.51</v>
       </c>
       <c r="G4" t="n">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="H4" t="n">
-        <v>55.46</v>
+        <v>53.51</v>
       </c>
       <c r="I4" t="n">
-        <v>1.76</v>
+        <v>1.94</v>
       </c>
       <c r="J4" t="n">
-        <v>57.93</v>
+        <v>55.9</v>
       </c>
       <c r="K4" t="n">
-        <v>3.57</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-18</t>
+          <t>2022-11-21</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -618,34 +618,34 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>12.78</v>
+        <v>13.12</v>
       </c>
       <c r="E5" t="n">
-        <v>3434</v>
+        <v>2989</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.62</v>
+        <v>2.66</v>
       </c>
       <c r="G5" t="n">
-        <v>1.38</v>
+        <v>1.12</v>
       </c>
       <c r="H5" t="n">
-        <v>54.02</v>
+        <v>55.46</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>1.76</v>
       </c>
       <c r="J5" t="n">
-        <v>56.43</v>
+        <v>57.93</v>
       </c>
       <c r="K5" t="n">
-        <v>3.48</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -659,34 +659,34 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>13.26</v>
+        <v>12.78</v>
       </c>
       <c r="E6" t="n">
-        <v>3001</v>
+        <v>3434</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.78</v>
+        <v>-3.62</v>
       </c>
       <c r="G6" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="H6" t="n">
-        <v>56.05</v>
+        <v>54.02</v>
       </c>
       <c r="I6" t="n">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>58.55</v>
+        <v>56.43</v>
       </c>
       <c r="K6" t="n">
-        <v>3.61</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-11-16</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -700,34 +700,34 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>13.5</v>
+        <v>13.26</v>
       </c>
       <c r="E7" t="n">
-        <v>2487</v>
+        <v>3001</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.39</v>
+        <v>-1.78</v>
       </c>
       <c r="G7" t="n">
-        <v>1.04</v>
+        <v>1.27</v>
       </c>
       <c r="H7" t="n">
-        <v>57.06</v>
+        <v>56.05</v>
       </c>
       <c r="I7" t="n">
-        <v>1.39</v>
+        <v>1.72</v>
       </c>
       <c r="J7" t="n">
-        <v>59.61</v>
+        <v>58.55</v>
       </c>
       <c r="K7" t="n">
-        <v>3.67</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-11-16</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -741,34 +741,34 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>13.69</v>
+        <v>13.5</v>
       </c>
       <c r="E8" t="n">
-        <v>2611</v>
+        <v>2487</v>
       </c>
       <c r="F8" t="n">
-        <v>2.78</v>
+        <v>-1.39</v>
       </c>
       <c r="G8" t="n">
-        <v>1.15</v>
+        <v>1.04</v>
       </c>
       <c r="H8" t="n">
-        <v>57.87</v>
+        <v>57.06</v>
       </c>
       <c r="I8" t="n">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="J8" t="n">
-        <v>60.45</v>
+        <v>59.61</v>
       </c>
       <c r="K8" t="n">
-        <v>3.73</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-11-14</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -782,34 +782,34 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>13.32</v>
+        <v>13.69</v>
       </c>
       <c r="E9" t="n">
-        <v>2295</v>
+        <v>2611</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.82</v>
+        <v>2.78</v>
       </c>
       <c r="G9" t="n">
-        <v>0.96</v>
+        <v>1.15</v>
       </c>
       <c r="H9" t="n">
-        <v>56.3</v>
+        <v>57.87</v>
       </c>
       <c r="I9" t="n">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="J9" t="n">
-        <v>58.82</v>
+        <v>60.45</v>
       </c>
       <c r="K9" t="n">
-        <v>3.63</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-11-11</t>
+          <t>2022-11-14</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -823,68 +823,109 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>13.43</v>
+        <v>13.32</v>
       </c>
       <c r="E10" t="n">
-        <v>2467</v>
+        <v>2295</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.15</v>
+        <v>-0.82</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="H10" t="n">
-        <v>56.77</v>
+        <v>56.3</v>
       </c>
       <c r="I10" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="J10" t="n">
-        <v>59.3</v>
+        <v>58.82</v>
       </c>
       <c r="K10" t="n">
-        <v>3.66</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>东箭科技</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>sz300978</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2467</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H11" t="n">
+        <v>56.77</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="J11" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>2022-11-10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>东箭科技</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>sz300978</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>东箭科技</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>sz300978</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>13.45</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E12" t="n">
         <v>2274</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F12" t="n">
         <v>-2.11</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G12" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H12" t="n">
         <v>56.85</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>1.27</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J12" t="n">
         <v>59.39</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K12" t="n">
         <v>3.66</v>
       </c>
     </row>

--- a/gengxiang/data_new/sz300978.xlsx
+++ b/gengxiang/data_new/sz300978.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-24</t>
+          <t>2022-11-25</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -495,34 +495,34 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>12.57</v>
+        <v>12.27</v>
       </c>
       <c r="E2" t="n">
-        <v>2505</v>
+        <v>2061</v>
       </c>
       <c r="F2" t="n">
-        <v>1.05</v>
+        <v>-2.39</v>
       </c>
       <c r="G2" t="n">
-        <v>0.77</v>
+        <v>0.65</v>
       </c>
       <c r="H2" t="n">
-        <v>53.13</v>
+        <v>51.87</v>
       </c>
       <c r="I2" t="n">
-        <v>1.51</v>
+        <v>1.27</v>
       </c>
       <c r="J2" t="n">
-        <v>55.51</v>
+        <v>54.18</v>
       </c>
       <c r="K2" t="n">
-        <v>3.42</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-23</t>
+          <t>2022-11-24</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -536,34 +536,34 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>12.44</v>
+        <v>12.57</v>
       </c>
       <c r="E3" t="n">
-        <v>4009</v>
+        <v>2505</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.74</v>
+        <v>1.05</v>
       </c>
       <c r="G3" t="n">
-        <v>1.4</v>
+        <v>0.77</v>
       </c>
       <c r="H3" t="n">
-        <v>52.58</v>
+        <v>53.13</v>
       </c>
       <c r="I3" t="n">
-        <v>2.46</v>
+        <v>1.51</v>
       </c>
       <c r="J3" t="n">
-        <v>54.93</v>
+        <v>55.51</v>
       </c>
       <c r="K3" t="n">
-        <v>3.39</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-22</t>
+          <t>2022-11-23</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -577,34 +577,34 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>12.66</v>
+        <v>12.44</v>
       </c>
       <c r="E4" t="n">
-        <v>3300</v>
+        <v>4009</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.51</v>
+        <v>-1.74</v>
       </c>
       <c r="G4" t="n">
-        <v>1.17</v>
+        <v>1.4</v>
       </c>
       <c r="H4" t="n">
-        <v>53.51</v>
+        <v>52.58</v>
       </c>
       <c r="I4" t="n">
-        <v>1.94</v>
+        <v>2.46</v>
       </c>
       <c r="J4" t="n">
-        <v>55.9</v>
+        <v>54.93</v>
       </c>
       <c r="K4" t="n">
-        <v>3.45</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-21</t>
+          <t>2022-11-22</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -618,34 +618,34 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>13.12</v>
+        <v>12.66</v>
       </c>
       <c r="E5" t="n">
-        <v>2989</v>
+        <v>3300</v>
       </c>
       <c r="F5" t="n">
-        <v>2.66</v>
+        <v>-3.51</v>
       </c>
       <c r="G5" t="n">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="H5" t="n">
-        <v>55.46</v>
+        <v>53.51</v>
       </c>
       <c r="I5" t="n">
-        <v>1.76</v>
+        <v>1.94</v>
       </c>
       <c r="J5" t="n">
-        <v>57.93</v>
+        <v>55.9</v>
       </c>
       <c r="K5" t="n">
-        <v>3.57</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-18</t>
+          <t>2022-11-21</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -659,34 +659,34 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>12.78</v>
+        <v>13.12</v>
       </c>
       <c r="E6" t="n">
-        <v>3434</v>
+        <v>2989</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.62</v>
+        <v>2.66</v>
       </c>
       <c r="G6" t="n">
-        <v>1.38</v>
+        <v>1.12</v>
       </c>
       <c r="H6" t="n">
-        <v>54.02</v>
+        <v>55.46</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>1.76</v>
       </c>
       <c r="J6" t="n">
-        <v>56.43</v>
+        <v>57.93</v>
       </c>
       <c r="K6" t="n">
-        <v>3.48</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -700,34 +700,34 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>13.26</v>
+        <v>12.78</v>
       </c>
       <c r="E7" t="n">
-        <v>3001</v>
+        <v>3434</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.78</v>
+        <v>-3.62</v>
       </c>
       <c r="G7" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="H7" t="n">
-        <v>56.05</v>
+        <v>54.02</v>
       </c>
       <c r="I7" t="n">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>58.55</v>
+        <v>56.43</v>
       </c>
       <c r="K7" t="n">
-        <v>3.61</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-11-16</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -741,34 +741,34 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>13.5</v>
+        <v>13.26</v>
       </c>
       <c r="E8" t="n">
-        <v>2487</v>
+        <v>3001</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.39</v>
+        <v>-1.78</v>
       </c>
       <c r="G8" t="n">
-        <v>1.04</v>
+        <v>1.27</v>
       </c>
       <c r="H8" t="n">
-        <v>57.06</v>
+        <v>56.05</v>
       </c>
       <c r="I8" t="n">
-        <v>1.39</v>
+        <v>1.72</v>
       </c>
       <c r="J8" t="n">
-        <v>59.61</v>
+        <v>58.55</v>
       </c>
       <c r="K8" t="n">
-        <v>3.67</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-11-16</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -782,34 +782,34 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>13.69</v>
+        <v>13.5</v>
       </c>
       <c r="E9" t="n">
-        <v>2611</v>
+        <v>2487</v>
       </c>
       <c r="F9" t="n">
-        <v>2.78</v>
+        <v>-1.39</v>
       </c>
       <c r="G9" t="n">
-        <v>1.15</v>
+        <v>1.04</v>
       </c>
       <c r="H9" t="n">
-        <v>57.87</v>
+        <v>57.06</v>
       </c>
       <c r="I9" t="n">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="J9" t="n">
-        <v>60.45</v>
+        <v>59.61</v>
       </c>
       <c r="K9" t="n">
-        <v>3.73</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-11-14</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -823,34 +823,34 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>13.32</v>
+        <v>13.69</v>
       </c>
       <c r="E10" t="n">
-        <v>2295</v>
+        <v>2611</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.82</v>
+        <v>2.78</v>
       </c>
       <c r="G10" t="n">
-        <v>0.96</v>
+        <v>1.15</v>
       </c>
       <c r="H10" t="n">
-        <v>56.3</v>
+        <v>57.87</v>
       </c>
       <c r="I10" t="n">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="J10" t="n">
-        <v>58.82</v>
+        <v>60.45</v>
       </c>
       <c r="K10" t="n">
-        <v>3.63</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-11-11</t>
+          <t>2022-11-14</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -864,68 +864,109 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>13.43</v>
+        <v>13.32</v>
       </c>
       <c r="E11" t="n">
-        <v>2467</v>
+        <v>2295</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.15</v>
+        <v>-0.82</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="H11" t="n">
-        <v>56.77</v>
+        <v>56.3</v>
       </c>
       <c r="I11" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="J11" t="n">
-        <v>59.3</v>
+        <v>58.82</v>
       </c>
       <c r="K11" t="n">
-        <v>3.66</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>东箭科技</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>sz300978</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2467</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H12" t="n">
+        <v>56.77</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="J12" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>2022-11-10</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>东箭科技</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>sz300978</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>东箭科技</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>sz300978</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>13.45</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E13" t="n">
         <v>2274</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F13" t="n">
         <v>-2.11</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G13" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H13" t="n">
         <v>56.85</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I13" t="n">
         <v>1.27</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J13" t="n">
         <v>59.39</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K13" t="n">
         <v>3.66</v>
       </c>
     </row>

--- a/gengxiang/data_new/sz300978.xlsx
+++ b/gengxiang/data_new/sz300978.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-25</t>
+          <t>2022-11-29</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -495,34 +495,34 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>12.27</v>
+        <v>12.31</v>
       </c>
       <c r="E2" t="n">
-        <v>2061</v>
+        <v>2977</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.39</v>
+        <v>1.74</v>
       </c>
       <c r="G2" t="n">
-        <v>0.65</v>
+        <v>1.04</v>
       </c>
       <c r="H2" t="n">
-        <v>51.87</v>
+        <v>52.03</v>
       </c>
       <c r="I2" t="n">
-        <v>1.27</v>
+        <v>1.84</v>
       </c>
       <c r="J2" t="n">
-        <v>54.18</v>
+        <v>54.36</v>
       </c>
       <c r="K2" t="n">
-        <v>3.34</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-24</t>
+          <t>2022-11-28</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -536,34 +536,34 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>12.57</v>
+        <v>12.1</v>
       </c>
       <c r="E3" t="n">
-        <v>2505</v>
+        <v>2609</v>
       </c>
       <c r="F3" t="n">
-        <v>1.05</v>
+        <v>-1.39</v>
       </c>
       <c r="G3" t="n">
-        <v>0.77</v>
+        <v>0.91</v>
       </c>
       <c r="H3" t="n">
-        <v>53.13</v>
+        <v>51.15</v>
       </c>
       <c r="I3" t="n">
-        <v>1.51</v>
+        <v>1.63</v>
       </c>
       <c r="J3" t="n">
-        <v>55.51</v>
+        <v>53.43</v>
       </c>
       <c r="K3" t="n">
-        <v>3.42</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-23</t>
+          <t>2022-11-25</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -577,34 +577,34 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>12.44</v>
+        <v>12.27</v>
       </c>
       <c r="E4" t="n">
-        <v>4009</v>
+        <v>2061</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.74</v>
+        <v>-2.39</v>
       </c>
       <c r="G4" t="n">
-        <v>1.4</v>
+        <v>0.65</v>
       </c>
       <c r="H4" t="n">
-        <v>52.58</v>
+        <v>51.87</v>
       </c>
       <c r="I4" t="n">
-        <v>2.46</v>
+        <v>1.27</v>
       </c>
       <c r="J4" t="n">
-        <v>54.93</v>
+        <v>54.18</v>
       </c>
       <c r="K4" t="n">
-        <v>3.39</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-22</t>
+          <t>2022-11-24</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -618,34 +618,34 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>12.66</v>
+        <v>12.57</v>
       </c>
       <c r="E5" t="n">
-        <v>3300</v>
+        <v>2505</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.51</v>
+        <v>1.05</v>
       </c>
       <c r="G5" t="n">
-        <v>1.17</v>
+        <v>0.77</v>
       </c>
       <c r="H5" t="n">
-        <v>53.51</v>
+        <v>53.13</v>
       </c>
       <c r="I5" t="n">
-        <v>1.94</v>
+        <v>1.51</v>
       </c>
       <c r="J5" t="n">
-        <v>55.9</v>
+        <v>55.51</v>
       </c>
       <c r="K5" t="n">
-        <v>3.45</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-21</t>
+          <t>2022-11-23</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -659,34 +659,34 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>13.12</v>
+        <v>12.44</v>
       </c>
       <c r="E6" t="n">
-        <v>2989</v>
+        <v>4009</v>
       </c>
       <c r="F6" t="n">
-        <v>2.66</v>
+        <v>-1.74</v>
       </c>
       <c r="G6" t="n">
-        <v>1.12</v>
+        <v>1.4</v>
       </c>
       <c r="H6" t="n">
-        <v>55.46</v>
+        <v>52.58</v>
       </c>
       <c r="I6" t="n">
-        <v>1.76</v>
+        <v>2.46</v>
       </c>
       <c r="J6" t="n">
-        <v>57.93</v>
+        <v>54.93</v>
       </c>
       <c r="K6" t="n">
-        <v>3.57</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-11-18</t>
+          <t>2022-11-22</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -700,34 +700,34 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>12.78</v>
+        <v>12.66</v>
       </c>
       <c r="E7" t="n">
-        <v>3434</v>
+        <v>3300</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.62</v>
+        <v>-3.51</v>
       </c>
       <c r="G7" t="n">
-        <v>1.38</v>
+        <v>1.17</v>
       </c>
       <c r="H7" t="n">
-        <v>54.02</v>
+        <v>53.51</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="J7" t="n">
-        <v>56.43</v>
+        <v>55.9</v>
       </c>
       <c r="K7" t="n">
-        <v>3.48</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2022-11-21</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -741,34 +741,34 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>13.26</v>
+        <v>13.12</v>
       </c>
       <c r="E8" t="n">
-        <v>3001</v>
+        <v>2989</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.78</v>
+        <v>2.66</v>
       </c>
       <c r="G8" t="n">
-        <v>1.27</v>
+        <v>1.12</v>
       </c>
       <c r="H8" t="n">
-        <v>56.05</v>
+        <v>55.46</v>
       </c>
       <c r="I8" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="J8" t="n">
-        <v>58.55</v>
+        <v>57.93</v>
       </c>
       <c r="K8" t="n">
-        <v>3.61</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-11-16</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -782,34 +782,34 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>13.5</v>
+        <v>12.78</v>
       </c>
       <c r="E9" t="n">
-        <v>2487</v>
+        <v>3434</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.39</v>
+        <v>-3.62</v>
       </c>
       <c r="G9" t="n">
-        <v>1.04</v>
+        <v>1.38</v>
       </c>
       <c r="H9" t="n">
-        <v>57.06</v>
+        <v>54.02</v>
       </c>
       <c r="I9" t="n">
-        <v>1.39</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>59.61</v>
+        <v>56.43</v>
       </c>
       <c r="K9" t="n">
-        <v>3.67</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -823,34 +823,34 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>13.69</v>
+        <v>13.26</v>
       </c>
       <c r="E10" t="n">
-        <v>2611</v>
+        <v>3001</v>
       </c>
       <c r="F10" t="n">
-        <v>2.78</v>
+        <v>-1.78</v>
       </c>
       <c r="G10" t="n">
-        <v>1.15</v>
+        <v>1.27</v>
       </c>
       <c r="H10" t="n">
-        <v>57.87</v>
+        <v>56.05</v>
       </c>
       <c r="I10" t="n">
-        <v>1.46</v>
+        <v>1.72</v>
       </c>
       <c r="J10" t="n">
-        <v>60.45</v>
+        <v>58.55</v>
       </c>
       <c r="K10" t="n">
-        <v>3.73</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-11-14</t>
+          <t>2022-11-16</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -864,34 +864,34 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>13.32</v>
+        <v>13.5</v>
       </c>
       <c r="E11" t="n">
-        <v>2295</v>
+        <v>2487</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.82</v>
+        <v>-1.39</v>
       </c>
       <c r="G11" t="n">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3</v>
+        <v>57.06</v>
       </c>
       <c r="I11" t="n">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="J11" t="n">
-        <v>58.82</v>
+        <v>59.61</v>
       </c>
       <c r="K11" t="n">
-        <v>3.63</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-11-11</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -905,68 +905,150 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>13.43</v>
+        <v>13.69</v>
       </c>
       <c r="E12" t="n">
-        <v>2467</v>
+        <v>2611</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.15</v>
+        <v>2.78</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9</v>
+        <v>1.15</v>
       </c>
       <c r="H12" t="n">
-        <v>56.77</v>
+        <v>57.87</v>
       </c>
       <c r="I12" t="n">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="J12" t="n">
-        <v>59.3</v>
+        <v>60.45</v>
       </c>
       <c r="K12" t="n">
-        <v>3.66</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>2022-11-14</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>东箭科技</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>sz300978</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>13.32</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2295</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.82</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H13" t="n">
+        <v>56.3</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J13" t="n">
+        <v>58.82</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>东箭科技</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>sz300978</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2467</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H14" t="n">
+        <v>56.77</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="J14" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>2022-11-10</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>东箭科技</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>sz300978</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>东箭科技</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>sz300978</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>13.45</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E15" t="n">
         <v>2274</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F15" t="n">
         <v>-2.11</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G15" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H15" t="n">
         <v>56.85</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I15" t="n">
         <v>1.27</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J15" t="n">
         <v>59.39</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K15" t="n">
         <v>3.66</v>
       </c>
     </row>

--- a/gengxiang/data_new/sz300978.xlsx
+++ b/gengxiang/data_new/sz300978.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-29</t>
+          <t>2022-11-30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -495,34 +495,34 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>12.31</v>
+        <v>12.68</v>
       </c>
       <c r="E2" t="n">
-        <v>2977</v>
+        <v>4623</v>
       </c>
       <c r="F2" t="n">
-        <v>1.74</v>
+        <v>3.01</v>
       </c>
       <c r="G2" t="n">
-        <v>1.04</v>
+        <v>1.6</v>
       </c>
       <c r="H2" t="n">
-        <v>52.03</v>
+        <v>53.6</v>
       </c>
       <c r="I2" t="n">
-        <v>1.84</v>
+        <v>2.78</v>
       </c>
       <c r="J2" t="n">
-        <v>54.36</v>
+        <v>55.99</v>
       </c>
       <c r="K2" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-28</t>
+          <t>2022-11-29</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -536,34 +536,34 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>12.1</v>
+        <v>12.31</v>
       </c>
       <c r="E3" t="n">
-        <v>2609</v>
+        <v>2977</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.39</v>
+        <v>1.74</v>
       </c>
       <c r="G3" t="n">
-        <v>0.91</v>
+        <v>1.04</v>
       </c>
       <c r="H3" t="n">
-        <v>51.15</v>
+        <v>52.03</v>
       </c>
       <c r="I3" t="n">
-        <v>1.63</v>
+        <v>1.84</v>
       </c>
       <c r="J3" t="n">
-        <v>53.43</v>
+        <v>54.36</v>
       </c>
       <c r="K3" t="n">
-        <v>3.29</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-25</t>
+          <t>2022-11-28</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -577,34 +577,34 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>12.27</v>
+        <v>12.1</v>
       </c>
       <c r="E4" t="n">
-        <v>2061</v>
+        <v>2609</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.39</v>
+        <v>-1.39</v>
       </c>
       <c r="G4" t="n">
-        <v>0.65</v>
+        <v>0.91</v>
       </c>
       <c r="H4" t="n">
-        <v>51.87</v>
+        <v>51.15</v>
       </c>
       <c r="I4" t="n">
-        <v>1.27</v>
+        <v>1.63</v>
       </c>
       <c r="J4" t="n">
-        <v>54.18</v>
+        <v>53.43</v>
       </c>
       <c r="K4" t="n">
-        <v>3.34</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-24</t>
+          <t>2022-11-25</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -618,34 +618,34 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>12.57</v>
+        <v>12.27</v>
       </c>
       <c r="E5" t="n">
-        <v>2505</v>
+        <v>2061</v>
       </c>
       <c r="F5" t="n">
-        <v>1.05</v>
+        <v>-2.39</v>
       </c>
       <c r="G5" t="n">
-        <v>0.77</v>
+        <v>0.65</v>
       </c>
       <c r="H5" t="n">
-        <v>53.13</v>
+        <v>51.87</v>
       </c>
       <c r="I5" t="n">
-        <v>1.51</v>
+        <v>1.27</v>
       </c>
       <c r="J5" t="n">
-        <v>55.51</v>
+        <v>54.18</v>
       </c>
       <c r="K5" t="n">
-        <v>3.42</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-23</t>
+          <t>2022-11-24</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -659,34 +659,34 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>12.44</v>
+        <v>12.57</v>
       </c>
       <c r="E6" t="n">
-        <v>4009</v>
+        <v>2505</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.74</v>
+        <v>1.05</v>
       </c>
       <c r="G6" t="n">
-        <v>1.4</v>
+        <v>0.77</v>
       </c>
       <c r="H6" t="n">
-        <v>52.58</v>
+        <v>53.13</v>
       </c>
       <c r="I6" t="n">
-        <v>2.46</v>
+        <v>1.51</v>
       </c>
       <c r="J6" t="n">
-        <v>54.93</v>
+        <v>55.51</v>
       </c>
       <c r="K6" t="n">
-        <v>3.39</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-11-22</t>
+          <t>2022-11-23</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -700,34 +700,34 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>12.66</v>
+        <v>12.44</v>
       </c>
       <c r="E7" t="n">
-        <v>3300</v>
+        <v>4009</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.51</v>
+        <v>-1.74</v>
       </c>
       <c r="G7" t="n">
-        <v>1.17</v>
+        <v>1.4</v>
       </c>
       <c r="H7" t="n">
-        <v>53.51</v>
+        <v>52.58</v>
       </c>
       <c r="I7" t="n">
-        <v>1.94</v>
+        <v>2.46</v>
       </c>
       <c r="J7" t="n">
-        <v>55.9</v>
+        <v>54.93</v>
       </c>
       <c r="K7" t="n">
-        <v>3.45</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-11-21</t>
+          <t>2022-11-22</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -741,34 +741,34 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>13.12</v>
+        <v>12.66</v>
       </c>
       <c r="E8" t="n">
-        <v>2989</v>
+        <v>3300</v>
       </c>
       <c r="F8" t="n">
-        <v>2.66</v>
+        <v>-3.51</v>
       </c>
       <c r="G8" t="n">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="H8" t="n">
-        <v>55.46</v>
+        <v>53.51</v>
       </c>
       <c r="I8" t="n">
-        <v>1.76</v>
+        <v>1.94</v>
       </c>
       <c r="J8" t="n">
-        <v>57.93</v>
+        <v>55.9</v>
       </c>
       <c r="K8" t="n">
-        <v>3.57</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-11-18</t>
+          <t>2022-11-21</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -782,34 +782,34 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>12.78</v>
+        <v>13.12</v>
       </c>
       <c r="E9" t="n">
-        <v>3434</v>
+        <v>2989</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.62</v>
+        <v>2.66</v>
       </c>
       <c r="G9" t="n">
-        <v>1.38</v>
+        <v>1.12</v>
       </c>
       <c r="H9" t="n">
-        <v>54.02</v>
+        <v>55.46</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>1.76</v>
       </c>
       <c r="J9" t="n">
-        <v>56.43</v>
+        <v>57.93</v>
       </c>
       <c r="K9" t="n">
-        <v>3.48</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -823,34 +823,34 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>13.26</v>
+        <v>12.78</v>
       </c>
       <c r="E10" t="n">
-        <v>3001</v>
+        <v>3434</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.78</v>
+        <v>-3.62</v>
       </c>
       <c r="G10" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="H10" t="n">
-        <v>56.05</v>
+        <v>54.02</v>
       </c>
       <c r="I10" t="n">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>58.55</v>
+        <v>56.43</v>
       </c>
       <c r="K10" t="n">
-        <v>3.61</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-11-16</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -864,34 +864,34 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>13.5</v>
+        <v>13.26</v>
       </c>
       <c r="E11" t="n">
-        <v>2487</v>
+        <v>3001</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.39</v>
+        <v>-1.78</v>
       </c>
       <c r="G11" t="n">
-        <v>1.04</v>
+        <v>1.27</v>
       </c>
       <c r="H11" t="n">
-        <v>57.06</v>
+        <v>56.05</v>
       </c>
       <c r="I11" t="n">
-        <v>1.39</v>
+        <v>1.72</v>
       </c>
       <c r="J11" t="n">
-        <v>59.61</v>
+        <v>58.55</v>
       </c>
       <c r="K11" t="n">
-        <v>3.67</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-11-16</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -905,34 +905,34 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>13.69</v>
+        <v>13.5</v>
       </c>
       <c r="E12" t="n">
-        <v>2611</v>
+        <v>2487</v>
       </c>
       <c r="F12" t="n">
-        <v>2.78</v>
+        <v>-1.39</v>
       </c>
       <c r="G12" t="n">
-        <v>1.15</v>
+        <v>1.04</v>
       </c>
       <c r="H12" t="n">
-        <v>57.87</v>
+        <v>57.06</v>
       </c>
       <c r="I12" t="n">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="J12" t="n">
-        <v>60.45</v>
+        <v>59.61</v>
       </c>
       <c r="K12" t="n">
-        <v>3.73</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-11-14</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -946,34 +946,34 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>13.32</v>
+        <v>13.69</v>
       </c>
       <c r="E13" t="n">
-        <v>2295</v>
+        <v>2611</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.82</v>
+        <v>2.78</v>
       </c>
       <c r="G13" t="n">
-        <v>0.96</v>
+        <v>1.15</v>
       </c>
       <c r="H13" t="n">
-        <v>56.3</v>
+        <v>57.87</v>
       </c>
       <c r="I13" t="n">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="J13" t="n">
-        <v>58.82</v>
+        <v>60.45</v>
       </c>
       <c r="K13" t="n">
-        <v>3.63</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-11-11</t>
+          <t>2022-11-14</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -987,68 +987,109 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>13.43</v>
+        <v>13.32</v>
       </c>
       <c r="E14" t="n">
-        <v>2467</v>
+        <v>2295</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.15</v>
+        <v>-0.82</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="H14" t="n">
-        <v>56.77</v>
+        <v>56.3</v>
       </c>
       <c r="I14" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="J14" t="n">
-        <v>59.3</v>
+        <v>58.82</v>
       </c>
       <c r="K14" t="n">
-        <v>3.66</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>东箭科技</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>sz300978</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2467</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H15" t="n">
+        <v>56.77</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="J15" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>2022-11-10</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>东箭科技</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>sz300978</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>东箭科技</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>sz300978</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>13.45</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E16" t="n">
         <v>2274</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F16" t="n">
         <v>-2.11</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G16" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H16" t="n">
         <v>56.85</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I16" t="n">
         <v>1.27</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J16" t="n">
         <v>59.39</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K16" t="n">
         <v>3.66</v>
       </c>
     </row>

--- a/gengxiang/data_new/sz300978.xlsx
+++ b/gengxiang/data_new/sz300978.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2022-12-01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -495,34 +495,34 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>12.68</v>
+        <v>12.73</v>
       </c>
       <c r="E2" t="n">
-        <v>4623</v>
+        <v>3243</v>
       </c>
       <c r="F2" t="n">
-        <v>3.01</v>
+        <v>0.39</v>
       </c>
       <c r="G2" t="n">
-        <v>1.6</v>
+        <v>1.06</v>
       </c>
       <c r="H2" t="n">
-        <v>53.6</v>
+        <v>53.81</v>
       </c>
       <c r="I2" t="n">
-        <v>2.78</v>
+        <v>1.91</v>
       </c>
       <c r="J2" t="n">
-        <v>55.99</v>
+        <v>56.21</v>
       </c>
       <c r="K2" t="n">
-        <v>3.45</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-29</t>
+          <t>2022-11-30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -536,34 +536,34 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>12.31</v>
+        <v>12.68</v>
       </c>
       <c r="E3" t="n">
-        <v>2977</v>
+        <v>4623</v>
       </c>
       <c r="F3" t="n">
-        <v>1.74</v>
+        <v>3.01</v>
       </c>
       <c r="G3" t="n">
-        <v>1.04</v>
+        <v>1.6</v>
       </c>
       <c r="H3" t="n">
-        <v>52.03</v>
+        <v>53.6</v>
       </c>
       <c r="I3" t="n">
-        <v>1.84</v>
+        <v>2.78</v>
       </c>
       <c r="J3" t="n">
-        <v>54.36</v>
+        <v>55.99</v>
       </c>
       <c r="K3" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-28</t>
+          <t>2022-11-29</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -577,34 +577,34 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>12.1</v>
+        <v>12.31</v>
       </c>
       <c r="E4" t="n">
-        <v>2609</v>
+        <v>2977</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.39</v>
+        <v>1.74</v>
       </c>
       <c r="G4" t="n">
-        <v>0.91</v>
+        <v>1.04</v>
       </c>
       <c r="H4" t="n">
-        <v>51.15</v>
+        <v>52.03</v>
       </c>
       <c r="I4" t="n">
-        <v>1.63</v>
+        <v>1.84</v>
       </c>
       <c r="J4" t="n">
-        <v>53.43</v>
+        <v>54.36</v>
       </c>
       <c r="K4" t="n">
-        <v>3.29</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-25</t>
+          <t>2022-11-28</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -618,34 +618,34 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>12.27</v>
+        <v>12.1</v>
       </c>
       <c r="E5" t="n">
-        <v>2061</v>
+        <v>2609</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.39</v>
+        <v>-1.39</v>
       </c>
       <c r="G5" t="n">
-        <v>0.65</v>
+        <v>0.91</v>
       </c>
       <c r="H5" t="n">
-        <v>51.87</v>
+        <v>51.15</v>
       </c>
       <c r="I5" t="n">
-        <v>1.27</v>
+        <v>1.63</v>
       </c>
       <c r="J5" t="n">
-        <v>54.18</v>
+        <v>53.43</v>
       </c>
       <c r="K5" t="n">
-        <v>3.34</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-24</t>
+          <t>2022-11-25</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -659,34 +659,34 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>12.57</v>
+        <v>12.27</v>
       </c>
       <c r="E6" t="n">
-        <v>2505</v>
+        <v>2061</v>
       </c>
       <c r="F6" t="n">
-        <v>1.05</v>
+        <v>-2.39</v>
       </c>
       <c r="G6" t="n">
-        <v>0.77</v>
+        <v>0.65</v>
       </c>
       <c r="H6" t="n">
-        <v>53.13</v>
+        <v>51.87</v>
       </c>
       <c r="I6" t="n">
-        <v>1.51</v>
+        <v>1.27</v>
       </c>
       <c r="J6" t="n">
-        <v>55.51</v>
+        <v>54.18</v>
       </c>
       <c r="K6" t="n">
-        <v>3.42</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-11-23</t>
+          <t>2022-11-24</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -700,34 +700,34 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>12.44</v>
+        <v>12.57</v>
       </c>
       <c r="E7" t="n">
-        <v>4009</v>
+        <v>2505</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.74</v>
+        <v>1.05</v>
       </c>
       <c r="G7" t="n">
-        <v>1.4</v>
+        <v>0.77</v>
       </c>
       <c r="H7" t="n">
-        <v>52.58</v>
+        <v>53.13</v>
       </c>
       <c r="I7" t="n">
-        <v>2.46</v>
+        <v>1.51</v>
       </c>
       <c r="J7" t="n">
-        <v>54.93</v>
+        <v>55.51</v>
       </c>
       <c r="K7" t="n">
-        <v>3.39</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-11-22</t>
+          <t>2022-11-23</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -741,34 +741,34 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>12.66</v>
+        <v>12.44</v>
       </c>
       <c r="E8" t="n">
-        <v>3300</v>
+        <v>4009</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.51</v>
+        <v>-1.74</v>
       </c>
       <c r="G8" t="n">
-        <v>1.17</v>
+        <v>1.4</v>
       </c>
       <c r="H8" t="n">
-        <v>53.51</v>
+        <v>52.58</v>
       </c>
       <c r="I8" t="n">
-        <v>1.94</v>
+        <v>2.46</v>
       </c>
       <c r="J8" t="n">
-        <v>55.9</v>
+        <v>54.93</v>
       </c>
       <c r="K8" t="n">
-        <v>3.45</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-11-21</t>
+          <t>2022-11-22</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -782,34 +782,34 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>13.12</v>
+        <v>12.66</v>
       </c>
       <c r="E9" t="n">
-        <v>2989</v>
+        <v>3300</v>
       </c>
       <c r="F9" t="n">
-        <v>2.66</v>
+        <v>-3.51</v>
       </c>
       <c r="G9" t="n">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="H9" t="n">
-        <v>55.46</v>
+        <v>53.51</v>
       </c>
       <c r="I9" t="n">
-        <v>1.76</v>
+        <v>1.94</v>
       </c>
       <c r="J9" t="n">
-        <v>57.93</v>
+        <v>55.9</v>
       </c>
       <c r="K9" t="n">
-        <v>3.57</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-11-18</t>
+          <t>2022-11-21</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -823,34 +823,34 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>12.78</v>
+        <v>13.12</v>
       </c>
       <c r="E10" t="n">
-        <v>3434</v>
+        <v>2989</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.62</v>
+        <v>2.66</v>
       </c>
       <c r="G10" t="n">
-        <v>1.38</v>
+        <v>1.12</v>
       </c>
       <c r="H10" t="n">
-        <v>54.02</v>
+        <v>55.46</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>1.76</v>
       </c>
       <c r="J10" t="n">
-        <v>56.43</v>
+        <v>57.93</v>
       </c>
       <c r="K10" t="n">
-        <v>3.48</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -864,34 +864,34 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>13.26</v>
+        <v>12.78</v>
       </c>
       <c r="E11" t="n">
-        <v>3001</v>
+        <v>3434</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.78</v>
+        <v>-3.62</v>
       </c>
       <c r="G11" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="H11" t="n">
-        <v>56.05</v>
+        <v>54.02</v>
       </c>
       <c r="I11" t="n">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>58.55</v>
+        <v>56.43</v>
       </c>
       <c r="K11" t="n">
-        <v>3.61</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-11-16</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -905,34 +905,34 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>13.5</v>
+        <v>13.26</v>
       </c>
       <c r="E12" t="n">
-        <v>2487</v>
+        <v>3001</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.39</v>
+        <v>-1.78</v>
       </c>
       <c r="G12" t="n">
-        <v>1.04</v>
+        <v>1.27</v>
       </c>
       <c r="H12" t="n">
-        <v>57.06</v>
+        <v>56.05</v>
       </c>
       <c r="I12" t="n">
-        <v>1.39</v>
+        <v>1.72</v>
       </c>
       <c r="J12" t="n">
-        <v>59.61</v>
+        <v>58.55</v>
       </c>
       <c r="K12" t="n">
-        <v>3.67</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-11-16</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -946,34 +946,34 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>13.69</v>
+        <v>13.5</v>
       </c>
       <c r="E13" t="n">
-        <v>2611</v>
+        <v>2487</v>
       </c>
       <c r="F13" t="n">
-        <v>2.78</v>
+        <v>-1.39</v>
       </c>
       <c r="G13" t="n">
-        <v>1.15</v>
+        <v>1.04</v>
       </c>
       <c r="H13" t="n">
-        <v>57.87</v>
+        <v>57.06</v>
       </c>
       <c r="I13" t="n">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="J13" t="n">
-        <v>60.45</v>
+        <v>59.61</v>
       </c>
       <c r="K13" t="n">
-        <v>3.73</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-11-14</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -987,34 +987,34 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>13.32</v>
+        <v>13.69</v>
       </c>
       <c r="E14" t="n">
-        <v>2295</v>
+        <v>2611</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.82</v>
+        <v>2.78</v>
       </c>
       <c r="G14" t="n">
-        <v>0.96</v>
+        <v>1.15</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3</v>
+        <v>57.87</v>
       </c>
       <c r="I14" t="n">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="J14" t="n">
-        <v>58.82</v>
+        <v>60.45</v>
       </c>
       <c r="K14" t="n">
-        <v>3.63</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-11-11</t>
+          <t>2022-11-14</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1028,68 +1028,109 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>13.43</v>
+        <v>13.32</v>
       </c>
       <c r="E15" t="n">
-        <v>2467</v>
+        <v>2295</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.15</v>
+        <v>-0.82</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="H15" t="n">
-        <v>56.77</v>
+        <v>56.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="J15" t="n">
-        <v>59.3</v>
+        <v>58.82</v>
       </c>
       <c r="K15" t="n">
-        <v>3.66</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>东箭科技</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>sz300978</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2467</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H16" t="n">
+        <v>56.77</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="J16" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>2022-11-10</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>东箭科技</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>sz300978</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>东箭科技</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>sz300978</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
         <v>13.45</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E17" t="n">
         <v>2274</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F17" t="n">
         <v>-2.11</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G17" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H17" t="n">
         <v>56.85</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I17" t="n">
         <v>1.27</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J17" t="n">
         <v>59.39</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K17" t="n">
         <v>3.66</v>
       </c>
     </row>

--- a/gengxiang/data_new/sz300978.xlsx
+++ b/gengxiang/data_new/sz300978.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -495,34 +495,34 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>12.73</v>
+        <v>12.65</v>
       </c>
       <c r="E2" t="n">
-        <v>3243</v>
+        <v>1844</v>
       </c>
       <c r="F2" t="n">
-        <v>0.39</v>
+        <v>-0.63</v>
       </c>
       <c r="G2" t="n">
-        <v>1.06</v>
+        <v>0.58</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81</v>
+        <v>53.47</v>
       </c>
       <c r="I2" t="n">
-        <v>1.91</v>
+        <v>1.1</v>
       </c>
       <c r="J2" t="n">
-        <v>56.21</v>
+        <v>55.86</v>
       </c>
       <c r="K2" t="n">
-        <v>3.46</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2022-12-01</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -536,34 +536,34 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>12.68</v>
+        <v>12.73</v>
       </c>
       <c r="E3" t="n">
-        <v>4623</v>
+        <v>3243</v>
       </c>
       <c r="F3" t="n">
-        <v>3.01</v>
+        <v>0.39</v>
       </c>
       <c r="G3" t="n">
-        <v>1.6</v>
+        <v>1.06</v>
       </c>
       <c r="H3" t="n">
-        <v>53.6</v>
+        <v>53.81</v>
       </c>
       <c r="I3" t="n">
-        <v>2.78</v>
+        <v>1.91</v>
       </c>
       <c r="J3" t="n">
-        <v>55.99</v>
+        <v>56.21</v>
       </c>
       <c r="K3" t="n">
-        <v>3.45</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-29</t>
+          <t>2022-11-30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -577,34 +577,34 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>12.31</v>
+        <v>12.68</v>
       </c>
       <c r="E4" t="n">
-        <v>2977</v>
+        <v>4623</v>
       </c>
       <c r="F4" t="n">
-        <v>1.74</v>
+        <v>3.01</v>
       </c>
       <c r="G4" t="n">
-        <v>1.04</v>
+        <v>1.6</v>
       </c>
       <c r="H4" t="n">
-        <v>52.03</v>
+        <v>53.6</v>
       </c>
       <c r="I4" t="n">
-        <v>1.84</v>
+        <v>2.78</v>
       </c>
       <c r="J4" t="n">
-        <v>54.36</v>
+        <v>55.99</v>
       </c>
       <c r="K4" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-28</t>
+          <t>2022-11-29</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -618,34 +618,34 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>12.1</v>
+        <v>12.31</v>
       </c>
       <c r="E5" t="n">
-        <v>2609</v>
+        <v>2977</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.39</v>
+        <v>1.74</v>
       </c>
       <c r="G5" t="n">
-        <v>0.91</v>
+        <v>1.04</v>
       </c>
       <c r="H5" t="n">
-        <v>51.15</v>
+        <v>52.03</v>
       </c>
       <c r="I5" t="n">
-        <v>1.63</v>
+        <v>1.84</v>
       </c>
       <c r="J5" t="n">
-        <v>53.43</v>
+        <v>54.36</v>
       </c>
       <c r="K5" t="n">
-        <v>3.29</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-25</t>
+          <t>2022-11-28</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -659,34 +659,34 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>12.27</v>
+        <v>12.1</v>
       </c>
       <c r="E6" t="n">
-        <v>2061</v>
+        <v>2609</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.39</v>
+        <v>-1.39</v>
       </c>
       <c r="G6" t="n">
-        <v>0.65</v>
+        <v>0.91</v>
       </c>
       <c r="H6" t="n">
-        <v>51.87</v>
+        <v>51.15</v>
       </c>
       <c r="I6" t="n">
-        <v>1.27</v>
+        <v>1.63</v>
       </c>
       <c r="J6" t="n">
-        <v>54.18</v>
+        <v>53.43</v>
       </c>
       <c r="K6" t="n">
-        <v>3.34</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-11-24</t>
+          <t>2022-11-25</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -700,34 +700,34 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>12.57</v>
+        <v>12.27</v>
       </c>
       <c r="E7" t="n">
-        <v>2505</v>
+        <v>2061</v>
       </c>
       <c r="F7" t="n">
-        <v>1.05</v>
+        <v>-2.39</v>
       </c>
       <c r="G7" t="n">
-        <v>0.77</v>
+        <v>0.65</v>
       </c>
       <c r="H7" t="n">
-        <v>53.13</v>
+        <v>51.87</v>
       </c>
       <c r="I7" t="n">
-        <v>1.51</v>
+        <v>1.27</v>
       </c>
       <c r="J7" t="n">
-        <v>55.51</v>
+        <v>54.18</v>
       </c>
       <c r="K7" t="n">
-        <v>3.42</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-11-23</t>
+          <t>2022-11-24</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -741,34 +741,34 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>12.44</v>
+        <v>12.57</v>
       </c>
       <c r="E8" t="n">
-        <v>4009</v>
+        <v>2505</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.74</v>
+        <v>1.05</v>
       </c>
       <c r="G8" t="n">
-        <v>1.4</v>
+        <v>0.77</v>
       </c>
       <c r="H8" t="n">
-        <v>52.58</v>
+        <v>53.13</v>
       </c>
       <c r="I8" t="n">
-        <v>2.46</v>
+        <v>1.51</v>
       </c>
       <c r="J8" t="n">
-        <v>54.93</v>
+        <v>55.51</v>
       </c>
       <c r="K8" t="n">
-        <v>3.39</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-11-22</t>
+          <t>2022-11-23</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -782,34 +782,34 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>12.66</v>
+        <v>12.44</v>
       </c>
       <c r="E9" t="n">
-        <v>3300</v>
+        <v>4009</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.51</v>
+        <v>-1.74</v>
       </c>
       <c r="G9" t="n">
-        <v>1.17</v>
+        <v>1.4</v>
       </c>
       <c r="H9" t="n">
-        <v>53.51</v>
+        <v>52.58</v>
       </c>
       <c r="I9" t="n">
-        <v>1.94</v>
+        <v>2.46</v>
       </c>
       <c r="J9" t="n">
-        <v>55.9</v>
+        <v>54.93</v>
       </c>
       <c r="K9" t="n">
-        <v>3.45</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-11-21</t>
+          <t>2022-11-22</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -823,34 +823,34 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>13.12</v>
+        <v>12.66</v>
       </c>
       <c r="E10" t="n">
-        <v>2989</v>
+        <v>3300</v>
       </c>
       <c r="F10" t="n">
-        <v>2.66</v>
+        <v>-3.51</v>
       </c>
       <c r="G10" t="n">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="H10" t="n">
-        <v>55.46</v>
+        <v>53.51</v>
       </c>
       <c r="I10" t="n">
-        <v>1.76</v>
+        <v>1.94</v>
       </c>
       <c r="J10" t="n">
-        <v>57.93</v>
+        <v>55.9</v>
       </c>
       <c r="K10" t="n">
-        <v>3.57</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-11-18</t>
+          <t>2022-11-21</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -864,34 +864,34 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>12.78</v>
+        <v>13.12</v>
       </c>
       <c r="E11" t="n">
-        <v>3434</v>
+        <v>2989</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.62</v>
+        <v>2.66</v>
       </c>
       <c r="G11" t="n">
-        <v>1.38</v>
+        <v>1.12</v>
       </c>
       <c r="H11" t="n">
-        <v>54.02</v>
+        <v>55.46</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>1.76</v>
       </c>
       <c r="J11" t="n">
-        <v>56.43</v>
+        <v>57.93</v>
       </c>
       <c r="K11" t="n">
-        <v>3.48</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -905,34 +905,34 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>13.26</v>
+        <v>12.78</v>
       </c>
       <c r="E12" t="n">
-        <v>3001</v>
+        <v>3434</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.78</v>
+        <v>-3.62</v>
       </c>
       <c r="G12" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="H12" t="n">
-        <v>56.05</v>
+        <v>54.02</v>
       </c>
       <c r="I12" t="n">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>58.55</v>
+        <v>56.43</v>
       </c>
       <c r="K12" t="n">
-        <v>3.61</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-11-16</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -946,34 +946,34 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>13.5</v>
+        <v>13.26</v>
       </c>
       <c r="E13" t="n">
-        <v>2487</v>
+        <v>3001</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.39</v>
+        <v>-1.78</v>
       </c>
       <c r="G13" t="n">
-        <v>1.04</v>
+        <v>1.27</v>
       </c>
       <c r="H13" t="n">
-        <v>57.06</v>
+        <v>56.05</v>
       </c>
       <c r="I13" t="n">
-        <v>1.39</v>
+        <v>1.72</v>
       </c>
       <c r="J13" t="n">
-        <v>59.61</v>
+        <v>58.55</v>
       </c>
       <c r="K13" t="n">
-        <v>3.67</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-11-16</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -987,34 +987,34 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>13.69</v>
+        <v>13.5</v>
       </c>
       <c r="E14" t="n">
-        <v>2611</v>
+        <v>2487</v>
       </c>
       <c r="F14" t="n">
-        <v>2.78</v>
+        <v>-1.39</v>
       </c>
       <c r="G14" t="n">
-        <v>1.15</v>
+        <v>1.04</v>
       </c>
       <c r="H14" t="n">
-        <v>57.87</v>
+        <v>57.06</v>
       </c>
       <c r="I14" t="n">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="J14" t="n">
-        <v>60.45</v>
+        <v>59.61</v>
       </c>
       <c r="K14" t="n">
-        <v>3.73</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-11-14</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1028,34 +1028,34 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>13.32</v>
+        <v>13.69</v>
       </c>
       <c r="E15" t="n">
-        <v>2295</v>
+        <v>2611</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.82</v>
+        <v>2.78</v>
       </c>
       <c r="G15" t="n">
-        <v>0.96</v>
+        <v>1.15</v>
       </c>
       <c r="H15" t="n">
-        <v>56.3</v>
+        <v>57.87</v>
       </c>
       <c r="I15" t="n">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="J15" t="n">
-        <v>58.82</v>
+        <v>60.45</v>
       </c>
       <c r="K15" t="n">
-        <v>3.63</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-11-11</t>
+          <t>2022-11-14</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1069,68 +1069,109 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>13.43</v>
+        <v>13.32</v>
       </c>
       <c r="E16" t="n">
-        <v>2467</v>
+        <v>2295</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.15</v>
+        <v>-0.82</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="H16" t="n">
-        <v>56.77</v>
+        <v>56.3</v>
       </c>
       <c r="I16" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="J16" t="n">
-        <v>59.3</v>
+        <v>58.82</v>
       </c>
       <c r="K16" t="n">
-        <v>3.66</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>东箭科技</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>sz300978</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2467</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H17" t="n">
+        <v>56.77</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="J17" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>2022-11-10</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>东箭科技</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>sz300978</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>东箭科技</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>sz300978</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
         <v>13.45</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E18" t="n">
         <v>2274</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F18" t="n">
         <v>-2.11</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G18" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H18" t="n">
         <v>56.85</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I18" t="n">
         <v>1.27</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J18" t="n">
         <v>59.39</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K18" t="n">
         <v>3.66</v>
       </c>
     </row>

--- a/gengxiang/data_new/sz300978.xlsx
+++ b/gengxiang/data_new/sz300978.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,24 +498,27 @@
         <v>12.65</v>
       </c>
       <c r="E2" t="n">
+        <v>15.28</v>
+      </c>
+      <c r="F2" t="n">
         <v>1844</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>-0.63</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>0.58</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>53.47</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>1.1</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>55.86</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>3.44</v>
       </c>
     </row>
@@ -539,24 +542,27 @@
         <v>12.73</v>
       </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
         <v>3243</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>0.39</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>1.06</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>53.81</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>1.91</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>56.21</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>3.46</v>
       </c>
     </row>
@@ -580,24 +586,27 @@
         <v>12.68</v>
       </c>
       <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
         <v>4623</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>3.01</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>1.6</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>53.6</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>2.78</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>55.99</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>3.45</v>
       </c>
     </row>
@@ -621,24 +630,27 @@
         <v>12.31</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>2977</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>1.74</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>1.04</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>52.03</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>1.84</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>54.36</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>3.35</v>
       </c>
     </row>
@@ -662,24 +674,27 @@
         <v>12.1</v>
       </c>
       <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
         <v>2609</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>-1.39</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>0.91</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>51.15</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>1.63</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>53.43</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>3.29</v>
       </c>
     </row>
@@ -703,24 +718,27 @@
         <v>12.27</v>
       </c>
       <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
         <v>2061</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>-2.39</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>0.65</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>51.87</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>1.27</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>54.18</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>3.34</v>
       </c>
     </row>
@@ -744,24 +762,27 @@
         <v>12.57</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>2505</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>1.05</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>0.77</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>53.13</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>1.51</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>55.51</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>3.42</v>
       </c>
     </row>
@@ -785,24 +806,27 @@
         <v>12.44</v>
       </c>
       <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
         <v>4009</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>-1.74</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>1.4</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>52.58</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>2.46</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>54.93</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>3.39</v>
       </c>
     </row>
@@ -826,24 +850,27 @@
         <v>12.66</v>
       </c>
       <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
         <v>3300</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>-3.51</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>1.17</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>53.51</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>1.94</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>55.9</v>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>3.45</v>
       </c>
     </row>
@@ -867,24 +894,27 @@
         <v>13.12</v>
       </c>
       <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>2989</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>2.66</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>1.12</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>55.46</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>1.76</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
         <v>57.93</v>
       </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
         <v>3.57</v>
       </c>
     </row>
@@ -908,24 +938,27 @@
         <v>12.78</v>
       </c>
       <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>3434</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>-3.62</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>1.38</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>54.02</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>2</v>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
         <v>56.43</v>
       </c>
-      <c r="K12" t="n">
+      <c r="L12" t="n">
         <v>3.48</v>
       </c>
     </row>
@@ -949,24 +982,27 @@
         <v>13.26</v>
       </c>
       <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>3001</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>-1.78</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>1.27</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>56.05</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>1.72</v>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
         <v>58.55</v>
       </c>
-      <c r="K13" t="n">
+      <c r="L13" t="n">
         <v>3.61</v>
       </c>
     </row>
@@ -990,24 +1026,27 @@
         <v>13.5</v>
       </c>
       <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>2487</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>-1.39</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>1.04</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>57.06</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>1.39</v>
       </c>
-      <c r="J14" t="n">
+      <c r="K14" t="n">
         <v>59.61</v>
       </c>
-      <c r="K14" t="n">
+      <c r="L14" t="n">
         <v>3.67</v>
       </c>
     </row>
@@ -1031,24 +1070,27 @@
         <v>13.69</v>
       </c>
       <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>2611</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>2.78</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>1.15</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>57.87</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>1.46</v>
       </c>
-      <c r="J15" t="n">
+      <c r="K15" t="n">
         <v>60.45</v>
       </c>
-      <c r="K15" t="n">
+      <c r="L15" t="n">
         <v>3.73</v>
       </c>
     </row>
@@ -1072,24 +1114,27 @@
         <v>13.32</v>
       </c>
       <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>2295</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>-0.82</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>0.96</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>56.3</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>1.3</v>
       </c>
-      <c r="J16" t="n">
+      <c r="K16" t="n">
         <v>58.82</v>
       </c>
-      <c r="K16" t="n">
+      <c r="L16" t="n">
         <v>3.63</v>
       </c>
     </row>
@@ -1113,24 +1158,27 @@
         <v>13.43</v>
       </c>
       <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>2467</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>-0.15</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>0.9</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>56.77</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>1.37</v>
       </c>
-      <c r="J17" t="n">
+      <c r="K17" t="n">
         <v>59.3</v>
       </c>
-      <c r="K17" t="n">
+      <c r="L17" t="n">
         <v>3.66</v>
       </c>
     </row>
@@ -1154,24 +1202,27 @@
         <v>13.45</v>
       </c>
       <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>2274</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>-2.11</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>56.85</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>1.27</v>
       </c>
-      <c r="J18" t="n">
+      <c r="K18" t="n">
         <v>59.39</v>
       </c>
-      <c r="K18" t="n">
+      <c r="L18" t="n">
         <v>3.66</v>
       </c>
     </row>

--- a/gengxiang/data_new/sz300978.xlsx
+++ b/gengxiang/data_new/sz300978.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-12-02</t>
+          <t>2022-12-05</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -495,37 +495,37 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>12.65</v>
+        <v>12.68</v>
       </c>
       <c r="E2" t="n">
-        <v>15.28</v>
+        <v>15.18</v>
       </c>
       <c r="F2" t="n">
-        <v>1844</v>
+        <v>2506</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.63</v>
+        <v>0.24</v>
       </c>
       <c r="H2" t="n">
-        <v>0.58</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>53.47</v>
+        <v>53.6</v>
       </c>
       <c r="J2" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="K2" t="n">
-        <v>55.86</v>
+        <v>55.99</v>
       </c>
       <c r="L2" t="n">
-        <v>3.44</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -539,37 +539,37 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>12.73</v>
+        <v>12.65</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>15.28</v>
       </c>
       <c r="F3" t="n">
-        <v>3243</v>
+        <v>1844</v>
       </c>
       <c r="G3" t="n">
-        <v>0.39</v>
+        <v>-0.63</v>
       </c>
       <c r="H3" t="n">
-        <v>1.06</v>
+        <v>0.58</v>
       </c>
       <c r="I3" t="n">
-        <v>53.81</v>
+        <v>53.47</v>
       </c>
       <c r="J3" t="n">
-        <v>1.91</v>
+        <v>1.1</v>
       </c>
       <c r="K3" t="n">
-        <v>56.21</v>
+        <v>55.86</v>
       </c>
       <c r="L3" t="n">
-        <v>3.46</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2022-12-01</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -583,37 +583,37 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>12.68</v>
+        <v>12.73</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4623</v>
+        <v>3243</v>
       </c>
       <c r="G4" t="n">
-        <v>3.01</v>
+        <v>0.39</v>
       </c>
       <c r="H4" t="n">
-        <v>1.6</v>
+        <v>1.06</v>
       </c>
       <c r="I4" t="n">
-        <v>53.6</v>
+        <v>53.81</v>
       </c>
       <c r="J4" t="n">
-        <v>2.78</v>
+        <v>1.91</v>
       </c>
       <c r="K4" t="n">
-        <v>55.99</v>
+        <v>56.21</v>
       </c>
       <c r="L4" t="n">
-        <v>3.45</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-29</t>
+          <t>2022-11-30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -627,37 +627,37 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>12.31</v>
+        <v>12.68</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>2977</v>
+        <v>4623</v>
       </c>
       <c r="G5" t="n">
-        <v>1.74</v>
+        <v>3.01</v>
       </c>
       <c r="H5" t="n">
-        <v>1.04</v>
+        <v>1.6</v>
       </c>
       <c r="I5" t="n">
-        <v>52.03</v>
+        <v>53.6</v>
       </c>
       <c r="J5" t="n">
-        <v>1.84</v>
+        <v>2.78</v>
       </c>
       <c r="K5" t="n">
-        <v>54.36</v>
+        <v>55.99</v>
       </c>
       <c r="L5" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-28</t>
+          <t>2022-11-29</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -671,37 +671,37 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>12.1</v>
+        <v>12.31</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>2609</v>
+        <v>2977</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.39</v>
+        <v>1.74</v>
       </c>
       <c r="H6" t="n">
-        <v>0.91</v>
+        <v>1.04</v>
       </c>
       <c r="I6" t="n">
-        <v>51.15</v>
+        <v>52.03</v>
       </c>
       <c r="J6" t="n">
-        <v>1.63</v>
+        <v>1.84</v>
       </c>
       <c r="K6" t="n">
-        <v>53.43</v>
+        <v>54.36</v>
       </c>
       <c r="L6" t="n">
-        <v>3.29</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-11-25</t>
+          <t>2022-11-28</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -715,37 +715,37 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>12.27</v>
+        <v>12.1</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>2061</v>
+        <v>2609</v>
       </c>
       <c r="G7" t="n">
-        <v>-2.39</v>
+        <v>-1.39</v>
       </c>
       <c r="H7" t="n">
-        <v>0.65</v>
+        <v>0.91</v>
       </c>
       <c r="I7" t="n">
-        <v>51.87</v>
+        <v>51.15</v>
       </c>
       <c r="J7" t="n">
-        <v>1.27</v>
+        <v>1.63</v>
       </c>
       <c r="K7" t="n">
-        <v>54.18</v>
+        <v>53.43</v>
       </c>
       <c r="L7" t="n">
-        <v>3.34</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-11-24</t>
+          <t>2022-11-25</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -759,37 +759,37 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>12.57</v>
+        <v>12.27</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>2505</v>
+        <v>2061</v>
       </c>
       <c r="G8" t="n">
-        <v>1.05</v>
+        <v>-2.39</v>
       </c>
       <c r="H8" t="n">
-        <v>0.77</v>
+        <v>0.65</v>
       </c>
       <c r="I8" t="n">
-        <v>53.13</v>
+        <v>51.87</v>
       </c>
       <c r="J8" t="n">
-        <v>1.51</v>
+        <v>1.27</v>
       </c>
       <c r="K8" t="n">
-        <v>55.51</v>
+        <v>54.18</v>
       </c>
       <c r="L8" t="n">
-        <v>3.42</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-11-23</t>
+          <t>2022-11-24</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -803,37 +803,37 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>12.44</v>
+        <v>12.57</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>4009</v>
+        <v>2505</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.74</v>
+        <v>1.05</v>
       </c>
       <c r="H9" t="n">
-        <v>1.4</v>
+        <v>0.77</v>
       </c>
       <c r="I9" t="n">
-        <v>52.58</v>
+        <v>53.13</v>
       </c>
       <c r="J9" t="n">
-        <v>2.46</v>
+        <v>1.51</v>
       </c>
       <c r="K9" t="n">
-        <v>54.93</v>
+        <v>55.51</v>
       </c>
       <c r="L9" t="n">
-        <v>3.39</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-11-22</t>
+          <t>2022-11-23</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -847,37 +847,37 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>12.66</v>
+        <v>12.44</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>3300</v>
+        <v>4009</v>
       </c>
       <c r="G10" t="n">
-        <v>-3.51</v>
+        <v>-1.74</v>
       </c>
       <c r="H10" t="n">
-        <v>1.17</v>
+        <v>1.4</v>
       </c>
       <c r="I10" t="n">
-        <v>53.51</v>
+        <v>52.58</v>
       </c>
       <c r="J10" t="n">
-        <v>1.94</v>
+        <v>2.46</v>
       </c>
       <c r="K10" t="n">
-        <v>55.9</v>
+        <v>54.93</v>
       </c>
       <c r="L10" t="n">
-        <v>3.45</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-11-21</t>
+          <t>2022-11-22</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -891,37 +891,37 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>13.12</v>
+        <v>12.66</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>2989</v>
+        <v>3300</v>
       </c>
       <c r="G11" t="n">
-        <v>2.66</v>
+        <v>-3.51</v>
       </c>
       <c r="H11" t="n">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="I11" t="n">
-        <v>55.46</v>
+        <v>53.51</v>
       </c>
       <c r="J11" t="n">
-        <v>1.76</v>
+        <v>1.94</v>
       </c>
       <c r="K11" t="n">
-        <v>57.93</v>
+        <v>55.9</v>
       </c>
       <c r="L11" t="n">
-        <v>3.57</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-11-18</t>
+          <t>2022-11-21</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -935,37 +935,37 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>12.78</v>
+        <v>13.12</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>3434</v>
+        <v>2989</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.62</v>
+        <v>2.66</v>
       </c>
       <c r="H12" t="n">
-        <v>1.38</v>
+        <v>1.12</v>
       </c>
       <c r="I12" t="n">
-        <v>54.02</v>
+        <v>55.46</v>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>1.76</v>
       </c>
       <c r="K12" t="n">
-        <v>56.43</v>
+        <v>57.93</v>
       </c>
       <c r="L12" t="n">
-        <v>3.48</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -979,37 +979,37 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>13.26</v>
+        <v>12.78</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>3001</v>
+        <v>3434</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.78</v>
+        <v>-3.62</v>
       </c>
       <c r="H13" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="I13" t="n">
-        <v>56.05</v>
+        <v>54.02</v>
       </c>
       <c r="J13" t="n">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="K13" t="n">
-        <v>58.55</v>
+        <v>56.43</v>
       </c>
       <c r="L13" t="n">
-        <v>3.61</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-11-16</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1023,37 +1023,37 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>13.5</v>
+        <v>13.26</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>2487</v>
+        <v>3001</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.39</v>
+        <v>-1.78</v>
       </c>
       <c r="H14" t="n">
-        <v>1.04</v>
+        <v>1.27</v>
       </c>
       <c r="I14" t="n">
-        <v>57.06</v>
+        <v>56.05</v>
       </c>
       <c r="J14" t="n">
-        <v>1.39</v>
+        <v>1.72</v>
       </c>
       <c r="K14" t="n">
-        <v>59.61</v>
+        <v>58.55</v>
       </c>
       <c r="L14" t="n">
-        <v>3.67</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-11-16</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1067,37 +1067,37 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>13.69</v>
+        <v>13.5</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>2611</v>
+        <v>2487</v>
       </c>
       <c r="G15" t="n">
-        <v>2.78</v>
+        <v>-1.39</v>
       </c>
       <c r="H15" t="n">
-        <v>1.15</v>
+        <v>1.04</v>
       </c>
       <c r="I15" t="n">
-        <v>57.87</v>
+        <v>57.06</v>
       </c>
       <c r="J15" t="n">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="K15" t="n">
-        <v>60.45</v>
+        <v>59.61</v>
       </c>
       <c r="L15" t="n">
-        <v>3.73</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-11-14</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1111,37 +1111,37 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>13.32</v>
+        <v>13.69</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>2295</v>
+        <v>2611</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.82</v>
+        <v>2.78</v>
       </c>
       <c r="H16" t="n">
-        <v>0.96</v>
+        <v>1.15</v>
       </c>
       <c r="I16" t="n">
-        <v>56.3</v>
+        <v>57.87</v>
       </c>
       <c r="J16" t="n">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="K16" t="n">
-        <v>58.82</v>
+        <v>60.45</v>
       </c>
       <c r="L16" t="n">
-        <v>3.63</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-11-11</t>
+          <t>2022-11-14</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1155,74 +1155,118 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>13.43</v>
+        <v>13.32</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>2467</v>
+        <v>2295</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.15</v>
+        <v>-0.82</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="I17" t="n">
-        <v>56.77</v>
+        <v>56.3</v>
       </c>
       <c r="J17" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="K17" t="n">
-        <v>59.3</v>
+        <v>58.82</v>
       </c>
       <c r="L17" t="n">
-        <v>3.66</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>东箭科技</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>sz300978</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2467</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I18" t="n">
+        <v>56.77</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="K18" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>2022-11-10</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>东箭科技</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>sz300978</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>东箭科技</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>sz300978</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
         <v>13.45</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>2274</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G19" t="n">
         <v>-2.11</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H19" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I19" t="n">
         <v>56.85</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J19" t="n">
         <v>1.27</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K19" t="n">
         <v>59.39</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L19" t="n">
         <v>3.66</v>
       </c>
     </row>

--- a/gengxiang/data_new/sz300978.xlsx
+++ b/gengxiang/data_new/sz300978.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-12-05</t>
+          <t>2022-12-06</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -495,37 +495,37 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>12.68</v>
+        <v>12.44</v>
       </c>
       <c r="E2" t="n">
-        <v>15.18</v>
+        <v>15.22</v>
       </c>
       <c r="F2" t="n">
-        <v>2506</v>
+        <v>2438</v>
       </c>
       <c r="G2" t="n">
-        <v>0.24</v>
+        <v>-1.89</v>
       </c>
       <c r="H2" t="n">
         <v>0.8100000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>53.6</v>
+        <v>52.58</v>
       </c>
       <c r="J2" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="K2" t="n">
-        <v>55.99</v>
+        <v>54.93</v>
       </c>
       <c r="L2" t="n">
-        <v>3.45</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-12-02</t>
+          <t>2022-12-05</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -539,37 +539,37 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>12.65</v>
+        <v>12.68</v>
       </c>
       <c r="E3" t="n">
-        <v>15.28</v>
+        <v>15.18</v>
       </c>
       <c r="F3" t="n">
-        <v>1844</v>
+        <v>2506</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.63</v>
+        <v>0.24</v>
       </c>
       <c r="H3" t="n">
-        <v>0.58</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>53.47</v>
+        <v>53.6</v>
       </c>
       <c r="J3" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="K3" t="n">
-        <v>55.86</v>
+        <v>55.99</v>
       </c>
       <c r="L3" t="n">
-        <v>3.44</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -583,37 +583,37 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>12.73</v>
+        <v>12.65</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>15.28</v>
       </c>
       <c r="F4" t="n">
-        <v>3243</v>
+        <v>1844</v>
       </c>
       <c r="G4" t="n">
-        <v>0.39</v>
+        <v>-0.63</v>
       </c>
       <c r="H4" t="n">
-        <v>1.06</v>
+        <v>0.58</v>
       </c>
       <c r="I4" t="n">
-        <v>53.81</v>
+        <v>53.47</v>
       </c>
       <c r="J4" t="n">
-        <v>1.91</v>
+        <v>1.1</v>
       </c>
       <c r="K4" t="n">
-        <v>56.21</v>
+        <v>55.86</v>
       </c>
       <c r="L4" t="n">
-        <v>3.46</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2022-12-01</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -627,37 +627,37 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>12.68</v>
+        <v>12.73</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>4623</v>
+        <v>3243</v>
       </c>
       <c r="G5" t="n">
-        <v>3.01</v>
+        <v>0.39</v>
       </c>
       <c r="H5" t="n">
-        <v>1.6</v>
+        <v>1.06</v>
       </c>
       <c r="I5" t="n">
-        <v>53.6</v>
+        <v>53.81</v>
       </c>
       <c r="J5" t="n">
-        <v>2.78</v>
+        <v>1.91</v>
       </c>
       <c r="K5" t="n">
-        <v>55.99</v>
+        <v>56.21</v>
       </c>
       <c r="L5" t="n">
-        <v>3.45</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-29</t>
+          <t>2022-11-30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -671,37 +671,37 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>12.31</v>
+        <v>12.68</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>2977</v>
+        <v>4623</v>
       </c>
       <c r="G6" t="n">
-        <v>1.74</v>
+        <v>3.01</v>
       </c>
       <c r="H6" t="n">
-        <v>1.04</v>
+        <v>1.6</v>
       </c>
       <c r="I6" t="n">
-        <v>52.03</v>
+        <v>53.6</v>
       </c>
       <c r="J6" t="n">
-        <v>1.84</v>
+        <v>2.78</v>
       </c>
       <c r="K6" t="n">
-        <v>54.36</v>
+        <v>55.99</v>
       </c>
       <c r="L6" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-11-28</t>
+          <t>2022-11-29</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -715,37 +715,37 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>12.1</v>
+        <v>12.31</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>2609</v>
+        <v>2977</v>
       </c>
       <c r="G7" t="n">
-        <v>-1.39</v>
+        <v>1.74</v>
       </c>
       <c r="H7" t="n">
-        <v>0.91</v>
+        <v>1.04</v>
       </c>
       <c r="I7" t="n">
-        <v>51.15</v>
+        <v>52.03</v>
       </c>
       <c r="J7" t="n">
-        <v>1.63</v>
+        <v>1.84</v>
       </c>
       <c r="K7" t="n">
-        <v>53.43</v>
+        <v>54.36</v>
       </c>
       <c r="L7" t="n">
-        <v>3.29</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-11-25</t>
+          <t>2022-11-28</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -759,37 +759,37 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>12.27</v>
+        <v>12.1</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>2061</v>
+        <v>2609</v>
       </c>
       <c r="G8" t="n">
-        <v>-2.39</v>
+        <v>-1.39</v>
       </c>
       <c r="H8" t="n">
-        <v>0.65</v>
+        <v>0.91</v>
       </c>
       <c r="I8" t="n">
-        <v>51.87</v>
+        <v>51.15</v>
       </c>
       <c r="J8" t="n">
-        <v>1.27</v>
+        <v>1.63</v>
       </c>
       <c r="K8" t="n">
-        <v>54.18</v>
+        <v>53.43</v>
       </c>
       <c r="L8" t="n">
-        <v>3.34</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-11-24</t>
+          <t>2022-11-25</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -803,37 +803,37 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>12.57</v>
+        <v>12.27</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>2505</v>
+        <v>2061</v>
       </c>
       <c r="G9" t="n">
-        <v>1.05</v>
+        <v>-2.39</v>
       </c>
       <c r="H9" t="n">
-        <v>0.77</v>
+        <v>0.65</v>
       </c>
       <c r="I9" t="n">
-        <v>53.13</v>
+        <v>51.87</v>
       </c>
       <c r="J9" t="n">
-        <v>1.51</v>
+        <v>1.27</v>
       </c>
       <c r="K9" t="n">
-        <v>55.51</v>
+        <v>54.18</v>
       </c>
       <c r="L9" t="n">
-        <v>3.42</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-11-23</t>
+          <t>2022-11-24</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -847,37 +847,37 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>12.44</v>
+        <v>12.57</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>4009</v>
+        <v>2505</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.74</v>
+        <v>1.05</v>
       </c>
       <c r="H10" t="n">
-        <v>1.4</v>
+        <v>0.77</v>
       </c>
       <c r="I10" t="n">
-        <v>52.58</v>
+        <v>53.13</v>
       </c>
       <c r="J10" t="n">
-        <v>2.46</v>
+        <v>1.51</v>
       </c>
       <c r="K10" t="n">
-        <v>54.93</v>
+        <v>55.51</v>
       </c>
       <c r="L10" t="n">
-        <v>3.39</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-11-22</t>
+          <t>2022-11-23</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -891,37 +891,37 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>12.66</v>
+        <v>12.44</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>3300</v>
+        <v>4009</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.51</v>
+        <v>-1.74</v>
       </c>
       <c r="H11" t="n">
-        <v>1.17</v>
+        <v>1.4</v>
       </c>
       <c r="I11" t="n">
-        <v>53.51</v>
+        <v>52.58</v>
       </c>
       <c r="J11" t="n">
-        <v>1.94</v>
+        <v>2.46</v>
       </c>
       <c r="K11" t="n">
-        <v>55.9</v>
+        <v>54.93</v>
       </c>
       <c r="L11" t="n">
-        <v>3.45</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-11-21</t>
+          <t>2022-11-22</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -935,37 +935,37 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>13.12</v>
+        <v>12.66</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>2989</v>
+        <v>3300</v>
       </c>
       <c r="G12" t="n">
-        <v>2.66</v>
+        <v>-3.51</v>
       </c>
       <c r="H12" t="n">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="I12" t="n">
-        <v>55.46</v>
+        <v>53.51</v>
       </c>
       <c r="J12" t="n">
-        <v>1.76</v>
+        <v>1.94</v>
       </c>
       <c r="K12" t="n">
-        <v>57.93</v>
+        <v>55.9</v>
       </c>
       <c r="L12" t="n">
-        <v>3.57</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-11-18</t>
+          <t>2022-11-21</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -979,37 +979,37 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>12.78</v>
+        <v>13.12</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>3434</v>
+        <v>2989</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.62</v>
+        <v>2.66</v>
       </c>
       <c r="H13" t="n">
-        <v>1.38</v>
+        <v>1.12</v>
       </c>
       <c r="I13" t="n">
-        <v>54.02</v>
+        <v>55.46</v>
       </c>
       <c r="J13" t="n">
-        <v>2</v>
+        <v>1.76</v>
       </c>
       <c r="K13" t="n">
-        <v>56.43</v>
+        <v>57.93</v>
       </c>
       <c r="L13" t="n">
-        <v>3.48</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1023,37 +1023,37 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>13.26</v>
+        <v>12.78</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>3001</v>
+        <v>3434</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.78</v>
+        <v>-3.62</v>
       </c>
       <c r="H14" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="I14" t="n">
-        <v>56.05</v>
+        <v>54.02</v>
       </c>
       <c r="J14" t="n">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="K14" t="n">
-        <v>58.55</v>
+        <v>56.43</v>
       </c>
       <c r="L14" t="n">
-        <v>3.61</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-11-16</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1067,37 +1067,37 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>13.5</v>
+        <v>13.26</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>2487</v>
+        <v>3001</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.39</v>
+        <v>-1.78</v>
       </c>
       <c r="H15" t="n">
-        <v>1.04</v>
+        <v>1.27</v>
       </c>
       <c r="I15" t="n">
-        <v>57.06</v>
+        <v>56.05</v>
       </c>
       <c r="J15" t="n">
-        <v>1.39</v>
+        <v>1.72</v>
       </c>
       <c r="K15" t="n">
-        <v>59.61</v>
+        <v>58.55</v>
       </c>
       <c r="L15" t="n">
-        <v>3.67</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-11-16</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1111,37 +1111,37 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>13.69</v>
+        <v>13.5</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>2611</v>
+        <v>2487</v>
       </c>
       <c r="G16" t="n">
-        <v>2.78</v>
+        <v>-1.39</v>
       </c>
       <c r="H16" t="n">
-        <v>1.15</v>
+        <v>1.04</v>
       </c>
       <c r="I16" t="n">
-        <v>57.87</v>
+        <v>57.06</v>
       </c>
       <c r="J16" t="n">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="K16" t="n">
-        <v>60.45</v>
+        <v>59.61</v>
       </c>
       <c r="L16" t="n">
-        <v>3.73</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-11-14</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1155,37 +1155,37 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>13.32</v>
+        <v>13.69</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>2295</v>
+        <v>2611</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.82</v>
+        <v>2.78</v>
       </c>
       <c r="H17" t="n">
-        <v>0.96</v>
+        <v>1.15</v>
       </c>
       <c r="I17" t="n">
-        <v>56.3</v>
+        <v>57.87</v>
       </c>
       <c r="J17" t="n">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="K17" t="n">
-        <v>58.82</v>
+        <v>60.45</v>
       </c>
       <c r="L17" t="n">
-        <v>3.63</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-11-11</t>
+          <t>2022-11-14</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1199,74 +1199,118 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>13.43</v>
+        <v>13.32</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>2467</v>
+        <v>2295</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.15</v>
+        <v>-0.82</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="I18" t="n">
-        <v>56.77</v>
+        <v>56.3</v>
       </c>
       <c r="J18" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="K18" t="n">
-        <v>59.3</v>
+        <v>58.82</v>
       </c>
       <c r="L18" t="n">
-        <v>3.66</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>东箭科技</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>sz300978</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2467</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I19" t="n">
+        <v>56.77</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="K19" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>2022-11-10</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>东箭科技</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>sz300978</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>东箭科技</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>sz300978</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
         <v>13.45</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>2274</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G20" t="n">
         <v>-2.11</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H20" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I20" t="n">
         <v>56.85</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J20" t="n">
         <v>1.27</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K20" t="n">
         <v>59.39</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L20" t="n">
         <v>3.66</v>
       </c>
     </row>

--- a/gengxiang/data_new/sz300978.xlsx
+++ b/gengxiang/data_new/sz300978.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-12-06</t>
+          <t>2022-12-07</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -495,37 +495,37 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>12.44</v>
+        <v>12.49</v>
       </c>
       <c r="E2" t="n">
-        <v>15.22</v>
+        <v>14.93</v>
       </c>
       <c r="F2" t="n">
-        <v>2438</v>
+        <v>1721</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.89</v>
+        <v>0.4</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="I2" t="n">
-        <v>52.58</v>
+        <v>52.8</v>
       </c>
       <c r="J2" t="n">
-        <v>1.48</v>
+        <v>1.04</v>
       </c>
       <c r="K2" t="n">
-        <v>54.93</v>
+        <v>55.15</v>
       </c>
       <c r="L2" t="n">
-        <v>3.39</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-12-05</t>
+          <t>2022-12-06</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -539,37 +539,37 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>12.68</v>
+        <v>12.44</v>
       </c>
       <c r="E3" t="n">
-        <v>15.18</v>
+        <v>15.22</v>
       </c>
       <c r="F3" t="n">
-        <v>2506</v>
+        <v>2438</v>
       </c>
       <c r="G3" t="n">
-        <v>0.24</v>
+        <v>-1.89</v>
       </c>
       <c r="H3" t="n">
         <v>0.8100000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>53.6</v>
+        <v>52.58</v>
       </c>
       <c r="J3" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="K3" t="n">
-        <v>55.99</v>
+        <v>54.93</v>
       </c>
       <c r="L3" t="n">
-        <v>3.45</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-12-02</t>
+          <t>2022-12-05</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -583,37 +583,37 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>12.65</v>
+        <v>12.68</v>
       </c>
       <c r="E4" t="n">
-        <v>15.28</v>
+        <v>15.18</v>
       </c>
       <c r="F4" t="n">
-        <v>1844</v>
+        <v>2506</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.63</v>
+        <v>0.24</v>
       </c>
       <c r="H4" t="n">
-        <v>0.58</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>53.47</v>
+        <v>53.6</v>
       </c>
       <c r="J4" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="K4" t="n">
-        <v>55.86</v>
+        <v>55.99</v>
       </c>
       <c r="L4" t="n">
-        <v>3.44</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -627,37 +627,37 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>12.73</v>
+        <v>12.65</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>15.28</v>
       </c>
       <c r="F5" t="n">
-        <v>3243</v>
+        <v>1844</v>
       </c>
       <c r="G5" t="n">
-        <v>0.39</v>
+        <v>-0.63</v>
       </c>
       <c r="H5" t="n">
-        <v>1.06</v>
+        <v>0.58</v>
       </c>
       <c r="I5" t="n">
-        <v>53.81</v>
+        <v>53.47</v>
       </c>
       <c r="J5" t="n">
-        <v>1.91</v>
+        <v>1.1</v>
       </c>
       <c r="K5" t="n">
-        <v>56.21</v>
+        <v>55.86</v>
       </c>
       <c r="L5" t="n">
-        <v>3.46</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2022-12-01</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -671,37 +671,37 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>12.68</v>
+        <v>12.73</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4623</v>
+        <v>3243</v>
       </c>
       <c r="G6" t="n">
-        <v>3.01</v>
+        <v>0.39</v>
       </c>
       <c r="H6" t="n">
-        <v>1.6</v>
+        <v>1.06</v>
       </c>
       <c r="I6" t="n">
-        <v>53.6</v>
+        <v>53.81</v>
       </c>
       <c r="J6" t="n">
-        <v>2.78</v>
+        <v>1.91</v>
       </c>
       <c r="K6" t="n">
-        <v>55.99</v>
+        <v>56.21</v>
       </c>
       <c r="L6" t="n">
-        <v>3.45</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-11-29</t>
+          <t>2022-11-30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -715,37 +715,37 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>12.31</v>
+        <v>12.68</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>2977</v>
+        <v>4623</v>
       </c>
       <c r="G7" t="n">
-        <v>1.74</v>
+        <v>3.01</v>
       </c>
       <c r="H7" t="n">
-        <v>1.04</v>
+        <v>1.6</v>
       </c>
       <c r="I7" t="n">
-        <v>52.03</v>
+        <v>53.6</v>
       </c>
       <c r="J7" t="n">
-        <v>1.84</v>
+        <v>2.78</v>
       </c>
       <c r="K7" t="n">
-        <v>54.36</v>
+        <v>55.99</v>
       </c>
       <c r="L7" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-11-28</t>
+          <t>2022-11-29</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -759,37 +759,37 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>12.1</v>
+        <v>12.31</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>2609</v>
+        <v>2977</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.39</v>
+        <v>1.74</v>
       </c>
       <c r="H8" t="n">
-        <v>0.91</v>
+        <v>1.04</v>
       </c>
       <c r="I8" t="n">
-        <v>51.15</v>
+        <v>52.03</v>
       </c>
       <c r="J8" t="n">
-        <v>1.63</v>
+        <v>1.84</v>
       </c>
       <c r="K8" t="n">
-        <v>53.43</v>
+        <v>54.36</v>
       </c>
       <c r="L8" t="n">
-        <v>3.29</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-11-25</t>
+          <t>2022-11-28</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -803,37 +803,37 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>12.27</v>
+        <v>12.1</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>2061</v>
+        <v>2609</v>
       </c>
       <c r="G9" t="n">
-        <v>-2.39</v>
+        <v>-1.39</v>
       </c>
       <c r="H9" t="n">
-        <v>0.65</v>
+        <v>0.91</v>
       </c>
       <c r="I9" t="n">
-        <v>51.87</v>
+        <v>51.15</v>
       </c>
       <c r="J9" t="n">
-        <v>1.27</v>
+        <v>1.63</v>
       </c>
       <c r="K9" t="n">
-        <v>54.18</v>
+        <v>53.43</v>
       </c>
       <c r="L9" t="n">
-        <v>3.34</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-11-24</t>
+          <t>2022-11-25</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -847,37 +847,37 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>12.57</v>
+        <v>12.27</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>2505</v>
+        <v>2061</v>
       </c>
       <c r="G10" t="n">
-        <v>1.05</v>
+        <v>-2.39</v>
       </c>
       <c r="H10" t="n">
-        <v>0.77</v>
+        <v>0.65</v>
       </c>
       <c r="I10" t="n">
-        <v>53.13</v>
+        <v>51.87</v>
       </c>
       <c r="J10" t="n">
-        <v>1.51</v>
+        <v>1.27</v>
       </c>
       <c r="K10" t="n">
-        <v>55.51</v>
+        <v>54.18</v>
       </c>
       <c r="L10" t="n">
-        <v>3.42</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-11-23</t>
+          <t>2022-11-24</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -891,37 +891,37 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>12.44</v>
+        <v>12.57</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>4009</v>
+        <v>2505</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.74</v>
+        <v>1.05</v>
       </c>
       <c r="H11" t="n">
-        <v>1.4</v>
+        <v>0.77</v>
       </c>
       <c r="I11" t="n">
-        <v>52.58</v>
+        <v>53.13</v>
       </c>
       <c r="J11" t="n">
-        <v>2.46</v>
+        <v>1.51</v>
       </c>
       <c r="K11" t="n">
-        <v>54.93</v>
+        <v>55.51</v>
       </c>
       <c r="L11" t="n">
-        <v>3.39</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-11-22</t>
+          <t>2022-11-23</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -935,37 +935,37 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>12.66</v>
+        <v>12.44</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>3300</v>
+        <v>4009</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.51</v>
+        <v>-1.74</v>
       </c>
       <c r="H12" t="n">
-        <v>1.17</v>
+        <v>1.4</v>
       </c>
       <c r="I12" t="n">
-        <v>53.51</v>
+        <v>52.58</v>
       </c>
       <c r="J12" t="n">
-        <v>1.94</v>
+        <v>2.46</v>
       </c>
       <c r="K12" t="n">
-        <v>55.9</v>
+        <v>54.93</v>
       </c>
       <c r="L12" t="n">
-        <v>3.45</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-11-21</t>
+          <t>2022-11-22</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -979,37 +979,37 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>13.12</v>
+        <v>12.66</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>2989</v>
+        <v>3300</v>
       </c>
       <c r="G13" t="n">
-        <v>2.66</v>
+        <v>-3.51</v>
       </c>
       <c r="H13" t="n">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="I13" t="n">
-        <v>55.46</v>
+        <v>53.51</v>
       </c>
       <c r="J13" t="n">
-        <v>1.76</v>
+        <v>1.94</v>
       </c>
       <c r="K13" t="n">
-        <v>57.93</v>
+        <v>55.9</v>
       </c>
       <c r="L13" t="n">
-        <v>3.57</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-11-18</t>
+          <t>2022-11-21</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1023,37 +1023,37 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12.78</v>
+        <v>13.12</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>3434</v>
+        <v>2989</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.62</v>
+        <v>2.66</v>
       </c>
       <c r="H14" t="n">
-        <v>1.38</v>
+        <v>1.12</v>
       </c>
       <c r="I14" t="n">
-        <v>54.02</v>
+        <v>55.46</v>
       </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>1.76</v>
       </c>
       <c r="K14" t="n">
-        <v>56.43</v>
+        <v>57.93</v>
       </c>
       <c r="L14" t="n">
-        <v>3.48</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1067,37 +1067,37 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>13.26</v>
+        <v>12.78</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>3001</v>
+        <v>3434</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.78</v>
+        <v>-3.62</v>
       </c>
       <c r="H15" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="I15" t="n">
-        <v>56.05</v>
+        <v>54.02</v>
       </c>
       <c r="J15" t="n">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="K15" t="n">
-        <v>58.55</v>
+        <v>56.43</v>
       </c>
       <c r="L15" t="n">
-        <v>3.61</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-11-16</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1111,37 +1111,37 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>13.5</v>
+        <v>13.26</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>2487</v>
+        <v>3001</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.39</v>
+        <v>-1.78</v>
       </c>
       <c r="H16" t="n">
-        <v>1.04</v>
+        <v>1.27</v>
       </c>
       <c r="I16" t="n">
-        <v>57.06</v>
+        <v>56.05</v>
       </c>
       <c r="J16" t="n">
-        <v>1.39</v>
+        <v>1.72</v>
       </c>
       <c r="K16" t="n">
-        <v>59.61</v>
+        <v>58.55</v>
       </c>
       <c r="L16" t="n">
-        <v>3.67</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-11-16</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1155,37 +1155,37 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>13.69</v>
+        <v>13.5</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>2611</v>
+        <v>2487</v>
       </c>
       <c r="G17" t="n">
-        <v>2.78</v>
+        <v>-1.39</v>
       </c>
       <c r="H17" t="n">
-        <v>1.15</v>
+        <v>1.04</v>
       </c>
       <c r="I17" t="n">
-        <v>57.87</v>
+        <v>57.06</v>
       </c>
       <c r="J17" t="n">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="K17" t="n">
-        <v>60.45</v>
+        <v>59.61</v>
       </c>
       <c r="L17" t="n">
-        <v>3.73</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-11-14</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1199,37 +1199,37 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>13.32</v>
+        <v>13.69</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>2295</v>
+        <v>2611</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.82</v>
+        <v>2.78</v>
       </c>
       <c r="H18" t="n">
-        <v>0.96</v>
+        <v>1.15</v>
       </c>
       <c r="I18" t="n">
-        <v>56.3</v>
+        <v>57.87</v>
       </c>
       <c r="J18" t="n">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="K18" t="n">
-        <v>58.82</v>
+        <v>60.45</v>
       </c>
       <c r="L18" t="n">
-        <v>3.63</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022-11-11</t>
+          <t>2022-11-14</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1243,74 +1243,118 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>13.43</v>
+        <v>13.32</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>2467</v>
+        <v>2295</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.15</v>
+        <v>-0.82</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="I19" t="n">
-        <v>56.77</v>
+        <v>56.3</v>
       </c>
       <c r="J19" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="K19" t="n">
-        <v>59.3</v>
+        <v>58.82</v>
       </c>
       <c r="L19" t="n">
-        <v>3.66</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>东箭科技</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>sz300978</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2467</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I20" t="n">
+        <v>56.77</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="K20" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>2022-11-10</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>东箭科技</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>sz300978</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>东箭科技</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>sz300978</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
         <v>13.45</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>2274</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G21" t="n">
         <v>-2.11</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H21" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I21" t="n">
         <v>56.85</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J21" t="n">
         <v>1.27</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K21" t="n">
         <v>59.39</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L21" t="n">
         <v>3.66</v>
       </c>
     </row>

--- a/gengxiang/data_new/sz300978.xlsx
+++ b/gengxiang/data_new/sz300978.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-12-06</t>
+          <t>2022-12-08</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -495,37 +495,37 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>12.44</v>
+        <v>12.5</v>
       </c>
       <c r="E2" t="n">
-        <v>15.22</v>
+        <v>14.99</v>
       </c>
       <c r="F2" t="n">
-        <v>2438</v>
+        <v>2697</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.89</v>
+        <v>0.08</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.16</v>
       </c>
       <c r="I2" t="n">
-        <v>52.58</v>
+        <v>52.84</v>
       </c>
       <c r="J2" t="n">
-        <v>1.48</v>
+        <v>1.63</v>
       </c>
       <c r="K2" t="n">
-        <v>54.93</v>
+        <v>55.2</v>
       </c>
       <c r="L2" t="n">
-        <v>3.39</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-12-05</t>
+          <t>2022-12-07</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -539,37 +539,37 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>12.68</v>
+        <v>12.49</v>
       </c>
       <c r="E3" t="n">
-        <v>15.18</v>
+        <v>14.93</v>
       </c>
       <c r="F3" t="n">
-        <v>2506</v>
+        <v>1721</v>
       </c>
       <c r="G3" t="n">
-        <v>0.24</v>
+        <v>0.4</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="I3" t="n">
-        <v>53.6</v>
+        <v>52.8</v>
       </c>
       <c r="J3" t="n">
-        <v>1.5</v>
+        <v>1.04</v>
       </c>
       <c r="K3" t="n">
-        <v>55.99</v>
+        <v>55.15</v>
       </c>
       <c r="L3" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-12-02</t>
+          <t>2022-12-06</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -583,37 +583,37 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>12.65</v>
+        <v>12.44</v>
       </c>
       <c r="E4" t="n">
-        <v>15.28</v>
+        <v>15.22</v>
       </c>
       <c r="F4" t="n">
-        <v>1844</v>
+        <v>2438</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.63</v>
+        <v>-1.89</v>
       </c>
       <c r="H4" t="n">
-        <v>0.58</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>53.47</v>
+        <v>52.58</v>
       </c>
       <c r="J4" t="n">
-        <v>1.1</v>
+        <v>1.48</v>
       </c>
       <c r="K4" t="n">
-        <v>55.86</v>
+        <v>54.93</v>
       </c>
       <c r="L4" t="n">
-        <v>3.44</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-05</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -627,37 +627,37 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>12.73</v>
+        <v>12.68</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>15.18</v>
       </c>
       <c r="F5" t="n">
-        <v>3243</v>
+        <v>2506</v>
       </c>
       <c r="G5" t="n">
-        <v>0.39</v>
+        <v>0.24</v>
       </c>
       <c r="H5" t="n">
-        <v>1.06</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>53.81</v>
+        <v>53.6</v>
       </c>
       <c r="J5" t="n">
-        <v>1.91</v>
+        <v>1.5</v>
       </c>
       <c r="K5" t="n">
-        <v>56.21</v>
+        <v>55.99</v>
       </c>
       <c r="L5" t="n">
-        <v>3.46</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -671,37 +671,37 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>12.68</v>
+        <v>12.65</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>15.28</v>
       </c>
       <c r="F6" t="n">
-        <v>4623</v>
+        <v>1844</v>
       </c>
       <c r="G6" t="n">
-        <v>3.01</v>
+        <v>-0.63</v>
       </c>
       <c r="H6" t="n">
-        <v>1.6</v>
+        <v>0.58</v>
       </c>
       <c r="I6" t="n">
-        <v>53.6</v>
+        <v>53.47</v>
       </c>
       <c r="J6" t="n">
-        <v>2.78</v>
+        <v>1.1</v>
       </c>
       <c r="K6" t="n">
-        <v>55.99</v>
+        <v>55.86</v>
       </c>
       <c r="L6" t="n">
-        <v>3.45</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-11-29</t>
+          <t>2022-12-01</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -715,37 +715,37 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>12.31</v>
+        <v>12.73</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>2977</v>
+        <v>3243</v>
       </c>
       <c r="G7" t="n">
-        <v>1.74</v>
+        <v>0.39</v>
       </c>
       <c r="H7" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="I7" t="n">
-        <v>52.03</v>
+        <v>53.81</v>
       </c>
       <c r="J7" t="n">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="K7" t="n">
-        <v>54.36</v>
+        <v>56.21</v>
       </c>
       <c r="L7" t="n">
-        <v>3.35</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-11-28</t>
+          <t>2022-11-30</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -759,37 +759,37 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>12.1</v>
+        <v>12.68</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>2609</v>
+        <v>4623</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.39</v>
+        <v>3.01</v>
       </c>
       <c r="H8" t="n">
-        <v>0.91</v>
+        <v>1.6</v>
       </c>
       <c r="I8" t="n">
-        <v>51.15</v>
+        <v>53.6</v>
       </c>
       <c r="J8" t="n">
-        <v>1.63</v>
+        <v>2.78</v>
       </c>
       <c r="K8" t="n">
-        <v>53.43</v>
+        <v>55.99</v>
       </c>
       <c r="L8" t="n">
-        <v>3.29</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-11-25</t>
+          <t>2022-11-29</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -803,37 +803,37 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>12.27</v>
+        <v>12.31</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>2061</v>
+        <v>2977</v>
       </c>
       <c r="G9" t="n">
-        <v>-2.39</v>
+        <v>1.74</v>
       </c>
       <c r="H9" t="n">
-        <v>0.65</v>
+        <v>1.04</v>
       </c>
       <c r="I9" t="n">
-        <v>51.87</v>
+        <v>52.03</v>
       </c>
       <c r="J9" t="n">
-        <v>1.27</v>
+        <v>1.84</v>
       </c>
       <c r="K9" t="n">
-        <v>54.18</v>
+        <v>54.36</v>
       </c>
       <c r="L9" t="n">
-        <v>3.34</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-11-24</t>
+          <t>2022-11-28</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -847,37 +847,37 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>12.57</v>
+        <v>12.1</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>2505</v>
+        <v>2609</v>
       </c>
       <c r="G10" t="n">
-        <v>1.05</v>
+        <v>-1.39</v>
       </c>
       <c r="H10" t="n">
-        <v>0.77</v>
+        <v>0.91</v>
       </c>
       <c r="I10" t="n">
-        <v>53.13</v>
+        <v>51.15</v>
       </c>
       <c r="J10" t="n">
-        <v>1.51</v>
+        <v>1.63</v>
       </c>
       <c r="K10" t="n">
-        <v>55.51</v>
+        <v>53.43</v>
       </c>
       <c r="L10" t="n">
-        <v>3.42</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-11-23</t>
+          <t>2022-11-25</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -891,37 +891,37 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>12.44</v>
+        <v>12.27</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>4009</v>
+        <v>2061</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.74</v>
+        <v>-2.39</v>
       </c>
       <c r="H11" t="n">
-        <v>1.4</v>
+        <v>0.65</v>
       </c>
       <c r="I11" t="n">
-        <v>52.58</v>
+        <v>51.87</v>
       </c>
       <c r="J11" t="n">
-        <v>2.46</v>
+        <v>1.27</v>
       </c>
       <c r="K11" t="n">
-        <v>54.93</v>
+        <v>54.18</v>
       </c>
       <c r="L11" t="n">
-        <v>3.39</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-11-22</t>
+          <t>2022-11-24</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -935,37 +935,37 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>12.66</v>
+        <v>12.57</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>3300</v>
+        <v>2505</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.51</v>
+        <v>1.05</v>
       </c>
       <c r="H12" t="n">
-        <v>1.17</v>
+        <v>0.77</v>
       </c>
       <c r="I12" t="n">
-        <v>53.51</v>
+        <v>53.13</v>
       </c>
       <c r="J12" t="n">
-        <v>1.94</v>
+        <v>1.51</v>
       </c>
       <c r="K12" t="n">
-        <v>55.9</v>
+        <v>55.51</v>
       </c>
       <c r="L12" t="n">
-        <v>3.45</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-11-21</t>
+          <t>2022-11-23</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -979,37 +979,37 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>13.12</v>
+        <v>12.44</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>2989</v>
+        <v>4009</v>
       </c>
       <c r="G13" t="n">
-        <v>2.66</v>
+        <v>-1.74</v>
       </c>
       <c r="H13" t="n">
-        <v>1.12</v>
+        <v>1.4</v>
       </c>
       <c r="I13" t="n">
-        <v>55.46</v>
+        <v>52.58</v>
       </c>
       <c r="J13" t="n">
-        <v>1.76</v>
+        <v>2.46</v>
       </c>
       <c r="K13" t="n">
-        <v>57.93</v>
+        <v>54.93</v>
       </c>
       <c r="L13" t="n">
-        <v>3.57</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-11-18</t>
+          <t>2022-11-22</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1023,37 +1023,37 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12.78</v>
+        <v>12.66</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>3434</v>
+        <v>3300</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.62</v>
+        <v>-3.51</v>
       </c>
       <c r="H14" t="n">
-        <v>1.38</v>
+        <v>1.17</v>
       </c>
       <c r="I14" t="n">
-        <v>54.02</v>
+        <v>53.51</v>
       </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="K14" t="n">
-        <v>56.43</v>
+        <v>55.9</v>
       </c>
       <c r="L14" t="n">
-        <v>3.48</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2022-11-21</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1067,37 +1067,37 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>13.26</v>
+        <v>13.12</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>3001</v>
+        <v>2989</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.78</v>
+        <v>2.66</v>
       </c>
       <c r="H15" t="n">
-        <v>1.27</v>
+        <v>1.12</v>
       </c>
       <c r="I15" t="n">
-        <v>56.05</v>
+        <v>55.46</v>
       </c>
       <c r="J15" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="K15" t="n">
-        <v>58.55</v>
+        <v>57.93</v>
       </c>
       <c r="L15" t="n">
-        <v>3.61</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-11-16</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1111,37 +1111,37 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>13.5</v>
+        <v>12.78</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>2487</v>
+        <v>3434</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.39</v>
+        <v>-3.62</v>
       </c>
       <c r="H16" t="n">
-        <v>1.04</v>
+        <v>1.38</v>
       </c>
       <c r="I16" t="n">
-        <v>57.06</v>
+        <v>54.02</v>
       </c>
       <c r="J16" t="n">
-        <v>1.39</v>
+        <v>2</v>
       </c>
       <c r="K16" t="n">
-        <v>59.61</v>
+        <v>56.43</v>
       </c>
       <c r="L16" t="n">
-        <v>3.67</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1155,37 +1155,37 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>13.69</v>
+        <v>13.26</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>2611</v>
+        <v>3001</v>
       </c>
       <c r="G17" t="n">
-        <v>2.78</v>
+        <v>-1.78</v>
       </c>
       <c r="H17" t="n">
-        <v>1.15</v>
+        <v>1.27</v>
       </c>
       <c r="I17" t="n">
-        <v>57.87</v>
+        <v>56.05</v>
       </c>
       <c r="J17" t="n">
-        <v>1.46</v>
+        <v>1.72</v>
       </c>
       <c r="K17" t="n">
-        <v>60.45</v>
+        <v>58.55</v>
       </c>
       <c r="L17" t="n">
-        <v>3.73</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-11-14</t>
+          <t>2022-11-16</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1199,37 +1199,37 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>13.32</v>
+        <v>13.5</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>2295</v>
+        <v>2487</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.82</v>
+        <v>-1.39</v>
       </c>
       <c r="H18" t="n">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="I18" t="n">
-        <v>56.3</v>
+        <v>57.06</v>
       </c>
       <c r="J18" t="n">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="K18" t="n">
-        <v>58.82</v>
+        <v>59.61</v>
       </c>
       <c r="L18" t="n">
-        <v>3.63</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022-11-11</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1243,37 +1243,37 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>13.43</v>
+        <v>13.69</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>2467</v>
+        <v>2611</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.15</v>
+        <v>2.78</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9</v>
+        <v>1.15</v>
       </c>
       <c r="I19" t="n">
-        <v>56.77</v>
+        <v>57.87</v>
       </c>
       <c r="J19" t="n">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="K19" t="n">
-        <v>59.3</v>
+        <v>60.45</v>
       </c>
       <c r="L19" t="n">
-        <v>3.66</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2022-11-10</t>
+          <t>2022-11-14</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1287,30 +1287,74 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>13.45</v>
+        <v>13.32</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>2274</v>
+        <v>2295</v>
       </c>
       <c r="G20" t="n">
-        <v>-2.11</v>
+        <v>-0.82</v>
       </c>
       <c r="H20" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="I20" t="n">
-        <v>56.85</v>
+        <v>56.3</v>
       </c>
       <c r="J20" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="K20" t="n">
-        <v>59.39</v>
+        <v>58.82</v>
       </c>
       <c r="L20" t="n">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>东箭科技</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>sz300978</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2467</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I21" t="n">
+        <v>56.77</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="K21" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="L21" t="n">
         <v>3.66</v>
       </c>
     </row>

--- a/gengxiang/data_new/sz300978.xlsx
+++ b/gengxiang/data_new/sz300978.xlsx
@@ -444,35 +444,40 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>涨停价格</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
           <t>成交额(万元)</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>涨跌幅%</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>量比</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>总市值(亿元)</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>换手率</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>市盈率</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>市净率</t>
         </is>
@@ -481,7 +486,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-12-08</t>
+          <t>2022-12-09</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -495,37 +500,37 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>12.5</v>
+        <v>12.12</v>
       </c>
       <c r="E2" t="n">
-        <v>14.99</v>
+        <v>15</v>
       </c>
       <c r="F2" t="n">
-        <v>2697</v>
+        <v>4494</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08</v>
+        <v>-3.04</v>
       </c>
       <c r="H2" t="n">
-        <v>1.16</v>
+        <v>2.07</v>
       </c>
       <c r="I2" t="n">
-        <v>52.84</v>
+        <v>51.23</v>
       </c>
       <c r="J2" t="n">
-        <v>1.63</v>
+        <v>2.79</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2</v>
+        <v>53.52</v>
       </c>
       <c r="L2" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-12-07</t>
+          <t>2022-12-08</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -539,28 +544,28 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>12.49</v>
+        <v>12.5</v>
       </c>
       <c r="E3" t="n">
-        <v>14.93</v>
+        <v>14.99</v>
       </c>
       <c r="F3" t="n">
-        <v>1721</v>
+        <v>2697</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4</v>
+        <v>0.08</v>
       </c>
       <c r="H3" t="n">
-        <v>0.59</v>
+        <v>1.16</v>
       </c>
       <c r="I3" t="n">
-        <v>52.8</v>
+        <v>52.84</v>
       </c>
       <c r="J3" t="n">
-        <v>1.04</v>
+        <v>1.63</v>
       </c>
       <c r="K3" t="n">
-        <v>55.15</v>
+        <v>55.2</v>
       </c>
       <c r="L3" t="n">
         <v>3.4</v>
@@ -569,7 +574,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-12-06</t>
+          <t>2022-12-07</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -583,37 +588,37 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>12.44</v>
+        <v>12.49</v>
       </c>
       <c r="E4" t="n">
-        <v>15.22</v>
+        <v>14.93</v>
       </c>
       <c r="F4" t="n">
-        <v>2438</v>
+        <v>1721</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.89</v>
+        <v>0.4</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="I4" t="n">
-        <v>52.58</v>
+        <v>52.8</v>
       </c>
       <c r="J4" t="n">
-        <v>1.48</v>
+        <v>1.04</v>
       </c>
       <c r="K4" t="n">
-        <v>54.93</v>
+        <v>55.15</v>
       </c>
       <c r="L4" t="n">
-        <v>3.39</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-12-05</t>
+          <t>2022-12-06</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -627,37 +632,37 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>12.68</v>
+        <v>12.44</v>
       </c>
       <c r="E5" t="n">
-        <v>15.18</v>
+        <v>15.22</v>
       </c>
       <c r="F5" t="n">
-        <v>2506</v>
+        <v>2438</v>
       </c>
       <c r="G5" t="n">
-        <v>0.24</v>
+        <v>-1.89</v>
       </c>
       <c r="H5" t="n">
         <v>0.8100000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>53.6</v>
+        <v>52.58</v>
       </c>
       <c r="J5" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="K5" t="n">
-        <v>55.99</v>
+        <v>54.93</v>
       </c>
       <c r="L5" t="n">
-        <v>3.45</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-12-02</t>
+          <t>2022-12-05</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -671,37 +676,37 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>12.65</v>
+        <v>12.68</v>
       </c>
       <c r="E6" t="n">
-        <v>15.28</v>
+        <v>15.18</v>
       </c>
       <c r="F6" t="n">
-        <v>1844</v>
+        <v>2506</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.63</v>
+        <v>0.24</v>
       </c>
       <c r="H6" t="n">
-        <v>0.58</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>53.47</v>
+        <v>53.6</v>
       </c>
       <c r="J6" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="K6" t="n">
-        <v>55.86</v>
+        <v>55.99</v>
       </c>
       <c r="L6" t="n">
-        <v>3.44</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -715,37 +720,37 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>12.73</v>
+        <v>12.65</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>15.28</v>
       </c>
       <c r="F7" t="n">
-        <v>3243</v>
+        <v>1844</v>
       </c>
       <c r="G7" t="n">
-        <v>0.39</v>
+        <v>-0.63</v>
       </c>
       <c r="H7" t="n">
-        <v>1.06</v>
+        <v>0.58</v>
       </c>
       <c r="I7" t="n">
-        <v>53.81</v>
+        <v>53.47</v>
       </c>
       <c r="J7" t="n">
-        <v>1.91</v>
+        <v>1.1</v>
       </c>
       <c r="K7" t="n">
-        <v>56.21</v>
+        <v>55.86</v>
       </c>
       <c r="L7" t="n">
-        <v>3.46</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2022-12-01</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -759,37 +764,37 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>12.68</v>
+        <v>12.73</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>4623</v>
+        <v>3243</v>
       </c>
       <c r="G8" t="n">
-        <v>3.01</v>
+        <v>0.39</v>
       </c>
       <c r="H8" t="n">
-        <v>1.6</v>
+        <v>1.06</v>
       </c>
       <c r="I8" t="n">
-        <v>53.6</v>
+        <v>53.81</v>
       </c>
       <c r="J8" t="n">
-        <v>2.78</v>
+        <v>1.91</v>
       </c>
       <c r="K8" t="n">
-        <v>55.99</v>
+        <v>56.21</v>
       </c>
       <c r="L8" t="n">
-        <v>3.45</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-11-29</t>
+          <t>2022-11-30</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -803,37 +808,37 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>12.31</v>
+        <v>12.68</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>2977</v>
+        <v>4623</v>
       </c>
       <c r="G9" t="n">
-        <v>1.74</v>
+        <v>3.01</v>
       </c>
       <c r="H9" t="n">
-        <v>1.04</v>
+        <v>1.6</v>
       </c>
       <c r="I9" t="n">
-        <v>52.03</v>
+        <v>53.6</v>
       </c>
       <c r="J9" t="n">
-        <v>1.84</v>
+        <v>2.78</v>
       </c>
       <c r="K9" t="n">
-        <v>54.36</v>
+        <v>55.99</v>
       </c>
       <c r="L9" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-11-28</t>
+          <t>2022-11-29</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -847,37 +852,37 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>12.1</v>
+        <v>12.31</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>2609</v>
+        <v>2977</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.39</v>
+        <v>1.74</v>
       </c>
       <c r="H10" t="n">
-        <v>0.91</v>
+        <v>1.04</v>
       </c>
       <c r="I10" t="n">
-        <v>51.15</v>
+        <v>52.03</v>
       </c>
       <c r="J10" t="n">
-        <v>1.63</v>
+        <v>1.84</v>
       </c>
       <c r="K10" t="n">
-        <v>53.43</v>
+        <v>54.36</v>
       </c>
       <c r="L10" t="n">
-        <v>3.29</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-11-25</t>
+          <t>2022-11-28</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -891,37 +896,37 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>12.27</v>
+        <v>12.1</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>2061</v>
+        <v>2609</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.39</v>
+        <v>-1.39</v>
       </c>
       <c r="H11" t="n">
-        <v>0.65</v>
+        <v>0.91</v>
       </c>
       <c r="I11" t="n">
-        <v>51.87</v>
+        <v>51.15</v>
       </c>
       <c r="J11" t="n">
-        <v>1.27</v>
+        <v>1.63</v>
       </c>
       <c r="K11" t="n">
-        <v>54.18</v>
+        <v>53.43</v>
       </c>
       <c r="L11" t="n">
-        <v>3.34</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-11-24</t>
+          <t>2022-11-25</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -935,37 +940,37 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>12.57</v>
+        <v>12.27</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>2505</v>
+        <v>2061</v>
       </c>
       <c r="G12" t="n">
-        <v>1.05</v>
+        <v>-2.39</v>
       </c>
       <c r="H12" t="n">
-        <v>0.77</v>
+        <v>0.65</v>
       </c>
       <c r="I12" t="n">
-        <v>53.13</v>
+        <v>51.87</v>
       </c>
       <c r="J12" t="n">
-        <v>1.51</v>
+        <v>1.27</v>
       </c>
       <c r="K12" t="n">
-        <v>55.51</v>
+        <v>54.18</v>
       </c>
       <c r="L12" t="n">
-        <v>3.42</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-11-23</t>
+          <t>2022-11-24</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -979,37 +984,37 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>12.44</v>
+        <v>12.57</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>4009</v>
+        <v>2505</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.74</v>
+        <v>1.05</v>
       </c>
       <c r="H13" t="n">
-        <v>1.4</v>
+        <v>0.77</v>
       </c>
       <c r="I13" t="n">
-        <v>52.58</v>
+        <v>53.13</v>
       </c>
       <c r="J13" t="n">
-        <v>2.46</v>
+        <v>1.51</v>
       </c>
       <c r="K13" t="n">
-        <v>54.93</v>
+        <v>55.51</v>
       </c>
       <c r="L13" t="n">
-        <v>3.39</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-11-22</t>
+          <t>2022-11-23</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1023,37 +1028,37 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12.66</v>
+        <v>12.44</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>3300</v>
+        <v>4009</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.51</v>
+        <v>-1.74</v>
       </c>
       <c r="H14" t="n">
-        <v>1.17</v>
+        <v>1.4</v>
       </c>
       <c r="I14" t="n">
-        <v>53.51</v>
+        <v>52.58</v>
       </c>
       <c r="J14" t="n">
-        <v>1.94</v>
+        <v>2.46</v>
       </c>
       <c r="K14" t="n">
-        <v>55.9</v>
+        <v>54.93</v>
       </c>
       <c r="L14" t="n">
-        <v>3.45</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-11-21</t>
+          <t>2022-11-22</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1067,37 +1072,37 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>13.12</v>
+        <v>12.66</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>2989</v>
+        <v>3300</v>
       </c>
       <c r="G15" t="n">
-        <v>2.66</v>
+        <v>-3.51</v>
       </c>
       <c r="H15" t="n">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="I15" t="n">
-        <v>55.46</v>
+        <v>53.51</v>
       </c>
       <c r="J15" t="n">
-        <v>1.76</v>
+        <v>1.94</v>
       </c>
       <c r="K15" t="n">
-        <v>57.93</v>
+        <v>55.9</v>
       </c>
       <c r="L15" t="n">
-        <v>3.57</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-11-18</t>
+          <t>2022-11-21</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1111,37 +1116,37 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>12.78</v>
+        <v>13.12</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>3434</v>
+        <v>2989</v>
       </c>
       <c r="G16" t="n">
-        <v>-3.62</v>
+        <v>2.66</v>
       </c>
       <c r="H16" t="n">
-        <v>1.38</v>
+        <v>1.12</v>
       </c>
       <c r="I16" t="n">
-        <v>54.02</v>
+        <v>55.46</v>
       </c>
       <c r="J16" t="n">
-        <v>2</v>
+        <v>1.76</v>
       </c>
       <c r="K16" t="n">
-        <v>56.43</v>
+        <v>57.93</v>
       </c>
       <c r="L16" t="n">
-        <v>3.48</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1155,37 +1160,37 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>13.26</v>
+        <v>12.78</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>3001</v>
+        <v>3434</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.78</v>
+        <v>-3.62</v>
       </c>
       <c r="H17" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="I17" t="n">
-        <v>56.05</v>
+        <v>54.02</v>
       </c>
       <c r="J17" t="n">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="K17" t="n">
-        <v>58.55</v>
+        <v>56.43</v>
       </c>
       <c r="L17" t="n">
-        <v>3.61</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-11-16</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1199,37 +1204,37 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>13.5</v>
+        <v>13.26</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>2487</v>
+        <v>3001</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.39</v>
+        <v>-1.78</v>
       </c>
       <c r="H18" t="n">
-        <v>1.04</v>
+        <v>1.27</v>
       </c>
       <c r="I18" t="n">
-        <v>57.06</v>
+        <v>56.05</v>
       </c>
       <c r="J18" t="n">
-        <v>1.39</v>
+        <v>1.72</v>
       </c>
       <c r="K18" t="n">
-        <v>59.61</v>
+        <v>58.55</v>
       </c>
       <c r="L18" t="n">
-        <v>3.67</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-11-16</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1243,37 +1248,37 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>13.69</v>
+        <v>13.5</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>2611</v>
+        <v>2487</v>
       </c>
       <c r="G19" t="n">
-        <v>2.78</v>
+        <v>-1.39</v>
       </c>
       <c r="H19" t="n">
-        <v>1.15</v>
+        <v>1.04</v>
       </c>
       <c r="I19" t="n">
-        <v>57.87</v>
+        <v>57.06</v>
       </c>
       <c r="J19" t="n">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="K19" t="n">
-        <v>60.45</v>
+        <v>59.61</v>
       </c>
       <c r="L19" t="n">
-        <v>3.73</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2022-11-14</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1287,37 +1292,37 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>13.32</v>
+        <v>13.69</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>2295</v>
+        <v>2611</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.82</v>
+        <v>2.78</v>
       </c>
       <c r="H20" t="n">
-        <v>0.96</v>
+        <v>1.15</v>
       </c>
       <c r="I20" t="n">
-        <v>56.3</v>
+        <v>57.87</v>
       </c>
       <c r="J20" t="n">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="K20" t="n">
-        <v>58.82</v>
+        <v>60.45</v>
       </c>
       <c r="L20" t="n">
-        <v>3.63</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2022-11-11</t>
+          <t>2022-11-14</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1331,31 +1336,31 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>13.43</v>
+        <v>13.32</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>2467</v>
+        <v>2295</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.15</v>
+        <v>-0.82</v>
       </c>
       <c r="H21" t="n">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="I21" t="n">
-        <v>56.77</v>
+        <v>56.3</v>
       </c>
       <c r="J21" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="K21" t="n">
-        <v>59.3</v>
+        <v>58.82</v>
       </c>
       <c r="L21" t="n">
-        <v>3.66</v>
+        <v>3.63</v>
       </c>
     </row>
   </sheetData>
